--- a/config/emissions_to_energy_mappings.xlsx
+++ b/config/emissions_to_energy_mappings.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aperc-my.sharepoint.com/personal/finbar_maunsell_aperc_or_jp/Documents/Documents/Github/aperc-emissions/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{2EC4C934-4881-4B50-B407-0AD672430172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AB1DD6E-169E-4361-850B-29EFB698BDDF}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="13_ncr:1_{2EC4C934-4881-4B50-B407-0AD672430172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{955330BC-B0C5-4338-AE24-FE76D59EFF8C}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="6270" windowWidth="23010" windowHeight="12330" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="6420" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAP_Hugh" sheetId="13" r:id="rId1"/>
     <sheet name="MAP_old_Hugh" sheetId="11" r:id="rId2"/>
     <sheet name="EGEDA_Hugh" sheetId="12" r:id="rId3"/>
     <sheet name="00APEC_map" sheetId="14" r:id="rId4"/>
-    <sheet name="README" sheetId="15" r:id="rId5"/>
+    <sheet name="transport_8th" sheetId="16" r:id="rId5"/>
+    <sheet name="outlook_8th" sheetId="17" r:id="rId6"/>
+    <sheet name="README" sheetId="15" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="308">
   <si>
     <t xml:space="preserve">Fuel type </t>
   </si>
@@ -956,12 +958,30 @@
   <si>
     <t>IPCC_emission_factors_2021_fuel</t>
   </si>
+  <si>
+    <t>Fuel_transport_8th</t>
+  </si>
+  <si>
+    <t>Find proportion of gasoline type jet fuel to kerosene type jet fuel in each economy in 00APEC to calculate an expected emissions for jet fuel. May also have to consider 7_2_aviation_gasoline</t>
+  </si>
+  <si>
+    <t>Find what coal types are used in rail and use  the avg emission factor for that</t>
+  </si>
+  <si>
+    <t>Un sure</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Outlook_8th_fuel_code</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1022,8 +1042,14 @@
       <color theme="1"/>
       <name val="Var(--jp-code-font-family)"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1042,6 +1068,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1055,7 +1087,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1080,6 +1112,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1103,6 +1140,86 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1935480</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D063907-491B-BAE2-E378-7B8F88DC3219}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2545080" y="655320"/>
+          <a:ext cx="8785860" cy="2362200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100"/>
+            <a:t>Would like to do this but its not clear what fuel types</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100" baseline="0"/>
+            <a:t> are in the outlook due to a lack of a central dataframe</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-SG" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1505,10 +1622,10 @@
   <dimension ref="A1:L88"/>
   <sheetViews>
     <sheetView zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="35.7109375" style="6" customWidth="1"/>
@@ -1522,7 +1639,7 @@
     <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>54</v>
       </c>
@@ -1530,7 +1647,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1">
+    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>87</v>
       </c>
@@ -1547,7 +1664,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>57</v>
       </c>
@@ -1563,7 +1680,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>57</v>
       </c>
@@ -1573,7 +1690,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -1589,7 +1706,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>57</v>
       </c>
@@ -1605,7 +1722,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>57</v>
       </c>
@@ -1621,7 +1738,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>57</v>
       </c>
@@ -1634,7 +1751,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
@@ -1650,7 +1767,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>57</v>
       </c>
@@ -1666,7 +1783,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>57</v>
       </c>
@@ -1679,7 +1796,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>57</v>
       </c>
@@ -1695,7 +1812,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>57</v>
       </c>
@@ -1711,7 +1828,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>57</v>
       </c>
@@ -1727,7 +1844,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>57</v>
       </c>
@@ -1743,7 +1860,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>57</v>
       </c>
@@ -1759,7 +1876,7 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>57</v>
       </c>
@@ -1772,7 +1889,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>57</v>
       </c>
@@ -1786,7 +1903,7 @@
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>57</v>
       </c>
@@ -1800,7 +1917,7 @@
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>57</v>
       </c>
@@ -1813,7 +1930,7 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:9" ht="17.25">
+    <row r="21" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>57</v>
       </c>
@@ -1829,7 +1946,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>57</v>
       </c>
@@ -1842,7 +1959,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>57</v>
       </c>
@@ -1855,7 +1972,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
@@ -1868,7 +1985,7 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>57</v>
       </c>
@@ -1881,7 +1998,7 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>57</v>
       </c>
@@ -1897,7 +2014,7 @@
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
@@ -1910,7 +2027,7 @@
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>57</v>
       </c>
@@ -1923,7 +2040,7 @@
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>57</v>
       </c>
@@ -1939,7 +2056,7 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>57</v>
       </c>
@@ -1952,7 +2069,7 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>57</v>
       </c>
@@ -1965,7 +2082,7 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>57</v>
       </c>
@@ -1978,7 +2095,7 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>57</v>
       </c>
@@ -1991,7 +2108,7 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>57</v>
       </c>
@@ -2001,7 +2118,7 @@
       <c r="G34" s="10"/>
       <c r="H34" s="11"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>57</v>
       </c>
@@ -2017,7 +2134,7 @@
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>57</v>
       </c>
@@ -2030,7 +2147,7 @@
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>57</v>
       </c>
@@ -2043,7 +2160,7 @@
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>57</v>
       </c>
@@ -2056,7 +2173,7 @@
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>57</v>
       </c>
@@ -2069,7 +2186,7 @@
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>57</v>
       </c>
@@ -2085,7 +2202,7 @@
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="1:8" ht="33">
+    <row r="41" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>57</v>
       </c>
@@ -2101,7 +2218,7 @@
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>57</v>
       </c>
@@ -2117,7 +2234,7 @@
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>57</v>
       </c>
@@ -2127,7 +2244,7 @@
       <c r="G43" s="10"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>57</v>
       </c>
@@ -2140,7 +2257,7 @@
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>76</v>
       </c>
@@ -2156,7 +2273,7 @@
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>76</v>
       </c>
@@ -2172,7 +2289,7 @@
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>76</v>
       </c>
@@ -2188,7 +2305,7 @@
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>76</v>
       </c>
@@ -2204,7 +2321,7 @@
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>76</v>
       </c>
@@ -2220,7 +2337,7 @@
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>76</v>
       </c>
@@ -2236,7 +2353,7 @@
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>76</v>
       </c>
@@ -2252,7 +2369,7 @@
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>76</v>
       </c>
@@ -2268,7 +2385,7 @@
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>76</v>
       </c>
@@ -2278,7 +2395,7 @@
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>76</v>
       </c>
@@ -2288,7 +2405,7 @@
       <c r="G54" s="13"/>
       <c r="H54" s="10"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>76</v>
       </c>
@@ -2301,7 +2418,7 @@
       <c r="G55" s="13"/>
       <c r="H55" s="10"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>57</v>
       </c>
@@ -2314,7 +2431,7 @@
       <c r="G56" s="13"/>
       <c r="H56" s="10"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>57</v>
       </c>
@@ -2328,7 +2445,7 @@
       <c r="G57" s="13"/>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>57</v>
       </c>
@@ -2342,7 +2459,7 @@
       <c r="G58" s="13"/>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>57</v>
       </c>
@@ -2356,121 +2473,121 @@
       <c r="G59" s="13"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D60"/>
       <c r="G60" s="13"/>
       <c r="H60" s="10"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D61"/>
       <c r="G61" s="13"/>
       <c r="H61" s="10"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G62" s="13"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G63" s="13"/>
       <c r="H63" s="10"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G64" s="13"/>
       <c r="H64" s="10"/>
     </row>
-    <row r="65" spans="7:8">
+    <row r="65" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G65" s="13"/>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" spans="7:8">
+    <row r="66" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G66" s="13"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" spans="7:8">
+    <row r="67" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G67" s="13"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="7:8">
+    <row r="68" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G68" s="13"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" spans="7:8">
+    <row r="69" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G69" s="13"/>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" spans="7:8">
+    <row r="70" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G70" s="13"/>
       <c r="H70" s="10"/>
     </row>
-    <row r="71" spans="7:8">
+    <row r="71" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
     </row>
-    <row r="72" spans="7:8">
+    <row r="72" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
     </row>
-    <row r="73" spans="7:8">
+    <row r="73" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" spans="7:8">
+    <row r="74" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
     </row>
-    <row r="75" spans="7:8">
+    <row r="75" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
     </row>
-    <row r="76" spans="7:8">
+    <row r="76" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" spans="7:8">
+    <row r="77" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" spans="7:8">
+    <row r="78" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
     </row>
-    <row r="79" spans="7:8">
+    <row r="79" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
     </row>
-    <row r="80" spans="7:8">
+    <row r="80" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
     </row>
-    <row r="81" spans="7:8">
+    <row r="81" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" spans="7:8">
+    <row r="82" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" spans="7:8">
+    <row r="83" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G83" s="10"/>
       <c r="H83" s="11"/>
     </row>
-    <row r="84" spans="7:8">
+    <row r="84" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
     </row>
-    <row r="85" spans="7:8">
+    <row r="85" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
     </row>
-    <row r="86" spans="7:8">
+    <row r="86" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
     </row>
-    <row r="87" spans="7:8">
+    <row r="87" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
     </row>
-    <row r="88" spans="7:8">
+    <row r="88" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
     </row>
@@ -2484,11 +2601,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A919A1-E034-4E6D-8034-EB37F251255F}">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="35.7109375" style="6" customWidth="1"/>
@@ -2500,7 +2617,7 @@
     <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>54</v>
       </c>
@@ -2508,7 +2625,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1">
+    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>87</v>
       </c>
@@ -2520,7 +2637,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>57</v>
       </c>
@@ -2533,7 +2650,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>57</v>
       </c>
@@ -2544,7 +2661,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -2557,7 +2674,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>57</v>
       </c>
@@ -2570,7 +2687,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>57</v>
       </c>
@@ -2583,7 +2700,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>57</v>
       </c>
@@ -2594,7 +2711,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
@@ -2607,7 +2724,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>57</v>
       </c>
@@ -2620,7 +2737,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>57</v>
       </c>
@@ -2631,7 +2748,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>57</v>
       </c>
@@ -2644,7 +2761,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>57</v>
       </c>
@@ -2657,7 +2774,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>57</v>
       </c>
@@ -2670,7 +2787,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>57</v>
       </c>
@@ -2683,7 +2800,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>57</v>
       </c>
@@ -2696,7 +2813,7 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>57</v>
       </c>
@@ -2707,7 +2824,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>57</v>
       </c>
@@ -2718,7 +2835,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>57</v>
       </c>
@@ -2731,7 +2848,7 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>57</v>
       </c>
@@ -2744,7 +2861,7 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:8" ht="17.25">
+    <row r="21" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>57</v>
       </c>
@@ -2757,7 +2874,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>57</v>
       </c>
@@ -2768,7 +2885,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>57</v>
       </c>
@@ -2779,7 +2896,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
@@ -2790,7 +2907,7 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>57</v>
       </c>
@@ -2801,7 +2918,7 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>57</v>
       </c>
@@ -2814,7 +2931,7 @@
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
@@ -2825,7 +2942,7 @@
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>57</v>
       </c>
@@ -2836,7 +2953,7 @@
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>57</v>
       </c>
@@ -2849,7 +2966,7 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>57</v>
       </c>
@@ -2860,7 +2977,7 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>57</v>
       </c>
@@ -2871,7 +2988,7 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>57</v>
       </c>
@@ -2882,7 +2999,7 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>57</v>
       </c>
@@ -2893,7 +3010,7 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>57</v>
       </c>
@@ -2904,7 +3021,7 @@
       <c r="G34" s="10"/>
       <c r="H34" s="11"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>57</v>
       </c>
@@ -2917,7 +3034,7 @@
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>57</v>
       </c>
@@ -2928,7 +3045,7 @@
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>57</v>
       </c>
@@ -2939,7 +3056,7 @@
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>57</v>
       </c>
@@ -2950,7 +3067,7 @@
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>57</v>
       </c>
@@ -2961,7 +3078,7 @@
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>57</v>
       </c>
@@ -2974,7 +3091,7 @@
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="1:8" ht="33">
+    <row r="41" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>57</v>
       </c>
@@ -2987,7 +3104,7 @@
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>57</v>
       </c>
@@ -3000,7 +3117,7 @@
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>57</v>
       </c>
@@ -3011,7 +3128,7 @@
       <c r="G43" s="10"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>57</v>
       </c>
@@ -3022,7 +3139,7 @@
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>76</v>
       </c>
@@ -3035,7 +3152,7 @@
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>76</v>
       </c>
@@ -3048,7 +3165,7 @@
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>76</v>
       </c>
@@ -3061,7 +3178,7 @@
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>76</v>
       </c>
@@ -3074,7 +3191,7 @@
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>76</v>
       </c>
@@ -3087,7 +3204,7 @@
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>76</v>
       </c>
@@ -3100,7 +3217,7 @@
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>76</v>
       </c>
@@ -3113,7 +3230,7 @@
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>76</v>
       </c>
@@ -3126,7 +3243,7 @@
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>76</v>
       </c>
@@ -3137,7 +3254,7 @@
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>76</v>
       </c>
@@ -3148,7 +3265,7 @@
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>76</v>
       </c>
@@ -3161,142 +3278,142 @@
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
     </row>
-    <row r="57" spans="1:8" ht="15">
+    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B57" s="8"/>
       <c r="C57"/>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" spans="1:8" ht="15">
+    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
       <c r="C58"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C59"/>
       <c r="G59" s="10"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C60"/>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C61"/>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G62" s="10"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
     </row>
-    <row r="65" spans="7:8">
+    <row r="65" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" spans="7:8">
+    <row r="66" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" spans="7:8">
+    <row r="67" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="7:8">
+    <row r="68" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" spans="7:8">
+    <row r="69" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" spans="7:8">
+    <row r="70" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
     </row>
-    <row r="71" spans="7:8">
+    <row r="71" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
     </row>
-    <row r="72" spans="7:8">
+    <row r="72" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
     </row>
-    <row r="73" spans="7:8">
+    <row r="73" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" spans="7:8">
+    <row r="74" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
     </row>
-    <row r="75" spans="7:8">
+    <row r="75" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
     </row>
-    <row r="76" spans="7:8">
+    <row r="76" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" spans="7:8">
+    <row r="77" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" spans="7:8">
+    <row r="78" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
     </row>
-    <row r="79" spans="7:8">
+    <row r="79" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
     </row>
-    <row r="80" spans="7:8">
+    <row r="80" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
     </row>
-    <row r="81" spans="7:8">
+    <row r="81" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" spans="7:8">
+    <row r="82" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" spans="7:8">
+    <row r="83" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G83" s="10"/>
       <c r="H83" s="11"/>
     </row>
-    <row r="84" spans="7:8">
+    <row r="84" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
     </row>
-    <row r="85" spans="7:8">
+    <row r="85" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
     </row>
-    <row r="86" spans="7:8">
+    <row r="86" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
     </row>
-    <row r="87" spans="7:8">
+    <row r="87" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
     </row>
-    <row r="88" spans="7:8">
+    <row r="88" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
     </row>
@@ -3310,17 +3427,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE09E85-5526-4DC5-A34D-9E004223557A}">
   <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.5703125" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2017</v>
       </c>
@@ -3328,7 +3445,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>88</v>
       </c>
@@ -3336,13 +3453,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>89</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>72</v>
       </c>
@@ -3350,7 +3467,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>91</v>
       </c>
@@ -3358,7 +3475,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>93</v>
       </c>
@@ -3366,7 +3483,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>95</v>
       </c>
@@ -3374,7 +3491,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>97</v>
       </c>
@@ -3382,7 +3499,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>98</v>
       </c>
@@ -3390,19 +3507,19 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>70</v>
       </c>
@@ -3410,7 +3527,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>74</v>
       </c>
@@ -3418,7 +3535,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>102</v>
       </c>
@@ -3426,7 +3543,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>103</v>
       </c>
@@ -3434,7 +3551,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>104</v>
       </c>
@@ -3442,7 +3559,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>105</v>
       </c>
@@ -3450,7 +3567,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>107</v>
       </c>
@@ -3458,7 +3575,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>108</v>
       </c>
@@ -3466,7 +3583,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>109</v>
       </c>
@@ -3474,7 +3591,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>110</v>
       </c>
@@ -3482,7 +3599,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>58</v>
       </c>
@@ -3490,7 +3607,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>113</v>
       </c>
@@ -3498,7 +3615,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>115</v>
       </c>
@@ -3506,7 +3623,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>117</v>
       </c>
@@ -3514,7 +3631,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>119</v>
       </c>
@@ -3522,7 +3639,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>121</v>
       </c>
@@ -3530,7 +3647,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>123</v>
       </c>
@@ -3538,13 +3655,13 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>125</v>
       </c>
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>60</v>
       </c>
@@ -3552,7 +3669,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>61</v>
       </c>
@@ -3560,7 +3677,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>68</v>
       </c>
@@ -3568,7 +3685,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>62</v>
       </c>
@@ -3576,7 +3693,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>130</v>
       </c>
@@ -3584,7 +3701,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>132</v>
       </c>
@@ -3592,7 +3709,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>63</v>
       </c>
@@ -3600,7 +3717,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>64</v>
       </c>
@@ -3608,7 +3725,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>65</v>
       </c>
@@ -3616,7 +3733,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>66</v>
       </c>
@@ -3624,7 +3741,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>71</v>
       </c>
@@ -3632,7 +3749,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>67</v>
       </c>
@@ -3640,7 +3757,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>69</v>
       </c>
@@ -3648,7 +3765,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>141</v>
       </c>
@@ -3656,7 +3773,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>143</v>
       </c>
@@ -3664,7 +3781,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>145</v>
       </c>
@@ -3672,7 +3789,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>147</v>
       </c>
@@ -3680,7 +3797,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>149</v>
       </c>
@@ -3688,7 +3805,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>151</v>
       </c>
@@ -3696,7 +3813,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>153</v>
       </c>
@@ -3704,7 +3821,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>75</v>
       </c>
@@ -3712,7 +3829,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>156</v>
       </c>
@@ -3720,7 +3837,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>158</v>
       </c>
@@ -3728,7 +3845,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>160</v>
       </c>
@@ -3736,7 +3853,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>162</v>
       </c>
@@ -3744,13 +3861,13 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>164</v>
       </c>
       <c r="B55" s="10"/>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>165</v>
       </c>
@@ -3758,13 +3875,13 @@
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>167</v>
       </c>
       <c r="B57" s="10"/>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>168</v>
       </c>
@@ -3772,7 +3889,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>170</v>
       </c>
@@ -3780,7 +3897,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>172</v>
       </c>
@@ -3788,7 +3905,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>174</v>
       </c>
@@ -3796,7 +3913,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>176</v>
       </c>
@@ -3804,13 +3921,13 @@
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>177</v>
       </c>
       <c r="B63" s="10"/>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>178</v>
       </c>
@@ -3818,7 +3935,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>79</v>
       </c>
@@ -3826,7 +3943,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>181</v>
       </c>
@@ -3834,7 +3951,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>82</v>
       </c>
@@ -3842,13 +3959,13 @@
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="13"/>
       <c r="B68" s="10" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>81</v>
       </c>
@@ -3856,13 +3973,13 @@
         <v>185</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>86</v>
       </c>
@@ -3870,7 +3987,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>78</v>
       </c>
@@ -3878,13 +3995,13 @@
         <v>188</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B73" s="10"/>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>189</v>
       </c>
@@ -3892,7 +4009,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>191</v>
       </c>
@@ -3900,13 +4017,13 @@
         <v>192</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>193</v>
       </c>
       <c r="B76" s="10"/>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>83</v>
       </c>
@@ -3914,7 +4031,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>84</v>
       </c>
@@ -3922,7 +4039,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>196</v>
       </c>
@@ -3930,7 +4047,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>85</v>
       </c>
@@ -3938,7 +4055,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>199</v>
       </c>
@@ -3946,13 +4063,13 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="11" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>202</v>
       </c>
@@ -3960,7 +4077,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>204</v>
       </c>
@@ -3968,7 +4085,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>206</v>
       </c>
@@ -3976,7 +4093,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>208</v>
       </c>
@@ -3984,7 +4101,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
         <v>210</v>
@@ -3999,18 +4116,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FD38E8-DCE1-4156-BA4C-4CE47C822C6C}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
     <col min="2" max="2" width="47.140625" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>251</v>
       </c>
@@ -4027,7 +4144,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5">
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>252</v>
       </c>
@@ -4041,7 +4158,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5">
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>253</v>
       </c>
@@ -4056,7 +4173,7 @@
       </c>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>213</v>
       </c>
@@ -4071,7 +4188,7 @@
       </c>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>254</v>
       </c>
@@ -4086,7 +4203,7 @@
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>255</v>
       </c>
@@ -4101,7 +4218,7 @@
       </c>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>256</v>
       </c>
@@ -4116,7 +4233,7 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>229</v>
       </c>
@@ -4130,7 +4247,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>230</v>
       </c>
@@ -4145,7 +4262,7 @@
       </c>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>231</v>
       </c>
@@ -4160,7 +4277,7 @@
       </c>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>232</v>
       </c>
@@ -4175,7 +4292,7 @@
       </c>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>233</v>
       </c>
@@ -4190,7 +4307,7 @@
       </c>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>234</v>
       </c>
@@ -4205,7 +4322,7 @@
       </c>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>235</v>
       </c>
@@ -4220,7 +4337,7 @@
       </c>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>257</v>
       </c>
@@ -4235,7 +4352,7 @@
       </c>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>258</v>
       </c>
@@ -4249,7 +4366,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.5">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>259</v>
       </c>
@@ -4263,7 +4380,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.5">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>260</v>
       </c>
@@ -4277,7 +4394,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.5">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>261</v>
       </c>
@@ -4292,7 +4409,7 @@
       </c>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>262</v>
       </c>
@@ -4307,7 +4424,7 @@
       </c>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>238</v>
       </c>
@@ -4322,7 +4439,7 @@
       </c>
       <c r="E21" s="14"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>263</v>
       </c>
@@ -4337,7 +4454,7 @@
       </c>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>239</v>
       </c>
@@ -4351,7 +4468,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.5">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>240</v>
       </c>
@@ -4365,7 +4482,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.5">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>241</v>
       </c>
@@ -4379,7 +4496,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.5">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>242</v>
       </c>
@@ -4394,7 +4511,7 @@
       </c>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>243</v>
       </c>
@@ -4409,7 +4526,7 @@
       </c>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>244</v>
       </c>
@@ -4423,7 +4540,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.5">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>245</v>
       </c>
@@ -4437,7 +4554,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16.5">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>246</v>
       </c>
@@ -4451,7 +4568,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5">
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>247</v>
       </c>
@@ -4465,7 +4582,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="17.25">
+    <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>248</v>
       </c>
@@ -4479,7 +4596,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5">
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>264</v>
       </c>
@@ -4493,7 +4610,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5">
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>265</v>
       </c>
@@ -4508,7 +4625,7 @@
       </c>
       <c r="E34" s="10"/>
     </row>
-    <row r="35" spans="1:5" ht="16.5">
+    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>266</v>
       </c>
@@ -4523,7 +4640,7 @@
       </c>
       <c r="E35" s="10"/>
     </row>
-    <row r="36" spans="1:5" ht="16.5">
+    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>267</v>
       </c>
@@ -4538,7 +4655,7 @@
       </c>
       <c r="E36" s="10"/>
     </row>
-    <row r="37" spans="1:5" ht="16.5">
+    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>249</v>
       </c>
@@ -4553,7 +4670,7 @@
       </c>
       <c r="E37" s="10"/>
     </row>
-    <row r="38" spans="1:5" ht="16.5">
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>268</v>
       </c>
@@ -4568,7 +4685,7 @@
       </c>
       <c r="E38" s="14"/>
     </row>
-    <row r="39" spans="1:5" ht="16.5">
+    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>269</v>
       </c>
@@ -4583,7 +4700,7 @@
       </c>
       <c r="E39" s="10"/>
     </row>
-    <row r="40" spans="1:5" ht="16.5">
+    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>270</v>
       </c>
@@ -4597,7 +4714,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16.5">
+    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>271</v>
       </c>
@@ -4612,7 +4729,7 @@
       </c>
       <c r="E41" s="14"/>
     </row>
-    <row r="42" spans="1:5" ht="16.5">
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>272</v>
       </c>
@@ -4627,7 +4744,7 @@
       </c>
       <c r="E42" s="10"/>
     </row>
-    <row r="43" spans="1:5" ht="16.5">
+    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>250</v>
       </c>
@@ -4641,7 +4758,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16.5">
+    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>214</v>
       </c>
@@ -4655,7 +4772,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.5">
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>215</v>
       </c>
@@ -4669,7 +4786,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16.5">
+    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>216</v>
       </c>
@@ -4683,7 +4800,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16.5">
+    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>217</v>
       </c>
@@ -4697,7 +4814,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16.5">
+    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>218</v>
       </c>
@@ -4711,7 +4828,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.5">
+    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>219</v>
       </c>
@@ -4725,7 +4842,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16.5">
+    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
         <v>220</v>
       </c>
@@ -4742,7 +4859,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="16.5">
+    <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>273</v>
       </c>
@@ -4756,7 +4873,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="16.5">
+    <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>221</v>
       </c>
@@ -4771,7 +4888,7 @@
       </c>
       <c r="E52" s="10"/>
     </row>
-    <row r="53" spans="1:5" ht="16.5">
+    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>274</v>
       </c>
@@ -4785,7 +4902,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="16.5">
+    <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>275</v>
       </c>
@@ -4799,7 +4916,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16.5">
+    <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>276</v>
       </c>
@@ -4813,7 +4930,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16.5">
+    <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>222</v>
       </c>
@@ -4827,7 +4944,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="33">
+    <row r="57" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>223</v>
       </c>
@@ -4841,7 +4958,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="16.5">
+    <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>277</v>
       </c>
@@ -4855,7 +4972,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="16.5">
+    <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>278</v>
       </c>
@@ -4869,7 +4986,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="16.5">
+    <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
         <v>224</v>
       </c>
@@ -4886,7 +5003,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="16.5">
+    <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>279</v>
       </c>
@@ -4900,7 +5017,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="16.5">
+    <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>225</v>
       </c>
@@ -4914,7 +5031,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="16.5">
+    <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>226</v>
       </c>
@@ -4928,7 +5045,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="16.5">
+    <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>227</v>
       </c>
@@ -4942,7 +5059,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="16.5">
+    <row r="65" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>228</v>
       </c>
@@ -4956,7 +5073,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="16.5">
+    <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>236</v>
       </c>
@@ -4970,7 +5087,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="16.5">
+    <row r="67" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>237</v>
       </c>
@@ -4984,7 +5101,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="16.5">
+    <row r="68" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>2</v>
       </c>
@@ -4992,7 +5109,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="16.5">
+    <row r="69" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>41</v>
       </c>
@@ -5000,7 +5117,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="16.5">
+    <row r="70" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>51</v>
       </c>
@@ -5008,7 +5125,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="16.5">
+    <row r="71" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>52</v>
       </c>
@@ -5023,6 +5140,999 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05164C71-A70B-4BC7-B5B5-94FB28BB5C0F}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAB965F-4D5B-450A-BC9E-4BCCD940211B}">
+  <dimension ref="A1:D71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="55" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>259</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>260</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>262</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>241</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>242</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>243</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>246</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>247</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>248</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>264</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>265</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>266</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>267</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>249</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>268</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>269</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>270</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>271</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>272</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>250</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D43" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>214</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D44" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>215</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D45" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>216</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D46" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>217</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D47" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>218</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D48" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>219</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B50" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>273</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>221</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>274</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>275</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>276</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>222</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>223</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>277</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>278</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B60" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>279</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>225</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D62" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>226</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D63" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>227</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D64" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>228</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D65" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>236</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D66" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>237</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D67" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C69" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D69" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C70" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C71" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0EE1A7-FFB9-4B6A-AE85-A8B4D5DB3969}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -5033,9 +6143,9 @@
       <selection activeCell="AD24" sqref="AD24:AE24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>286</v>
       </c>
@@ -5049,7 +6159,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -5060,7 +6170,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>293</v>
       </c>
@@ -5071,7 +6181,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>294</v>
       </c>
@@ -5082,7 +6192,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>295</v>
       </c>
@@ -5100,12 +6210,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5320,15 +6427,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5642E2D6-5FC9-4774-9921-BA0AFC0F5376}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70F8FCA0-6F75-4AC4-8942-440B95B5FC2E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5353,10 +6464,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70F8FCA0-6F75-4AC4-8942-440B95B5FC2E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5642E2D6-5FC9-4774-9921-BA0AFC0F5376}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/config/emissions_to_energy_mappings.xlsx
+++ b/config/emissions_to_energy_mappings.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="154" documentId="13_ncr:1_{2EC4C934-4881-4B50-B407-0AD672430172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{955330BC-B0C5-4338-AE24-FE76D59EFF8C}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="6420" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="6420" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAP_Hugh" sheetId="13" r:id="rId1"/>
@@ -981,7 +981,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1625,7 +1625,7 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="35.7109375" style="6" customWidth="1"/>
@@ -1639,7 +1639,7 @@
     <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="3" t="s">
         <v>54</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
         <v>87</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>57</v>
       </c>
@@ -1680,7 +1680,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>57</v>
       </c>
@@ -1690,7 +1690,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -1706,7 +1706,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
         <v>57</v>
       </c>
@@ -1722,7 +1722,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
         <v>57</v>
       </c>
@@ -1738,7 +1738,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
         <v>57</v>
       </c>
@@ -1751,7 +1751,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
@@ -1767,7 +1767,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
         <v>57</v>
       </c>
@@ -1783,7 +1783,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
         <v>57</v>
       </c>
@@ -1796,7 +1796,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
         <v>57</v>
       </c>
@@ -1812,7 +1812,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
         <v>57</v>
       </c>
@@ -1828,7 +1828,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>57</v>
       </c>
@@ -1844,7 +1844,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
         <v>57</v>
       </c>
@@ -1860,7 +1860,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="4" t="s">
         <v>57</v>
       </c>
@@ -1876,7 +1876,7 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
         <v>57</v>
       </c>
@@ -1889,7 +1889,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
         <v>57</v>
       </c>
@@ -1903,7 +1903,7 @@
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
         <v>57</v>
       </c>
@@ -1917,7 +1917,7 @@
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
         <v>57</v>
       </c>
@@ -1930,7 +1930,7 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="17.25">
       <c r="A21" s="4" t="s">
         <v>57</v>
       </c>
@@ -1946,7 +1946,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
         <v>57</v>
       </c>
@@ -1959,7 +1959,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
         <v>57</v>
       </c>
@@ -1972,7 +1972,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
@@ -1985,7 +1985,7 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25" s="4" t="s">
         <v>57</v>
       </c>
@@ -1998,7 +1998,7 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26" s="4" t="s">
         <v>57</v>
       </c>
@@ -2014,7 +2014,7 @@
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
@@ -2027,7 +2027,7 @@
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28" s="4" t="s">
         <v>57</v>
       </c>
@@ -2040,7 +2040,7 @@
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29" s="4" t="s">
         <v>57</v>
       </c>
@@ -2056,7 +2056,7 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
         <v>57</v>
       </c>
@@ -2069,7 +2069,7 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
         <v>57</v>
       </c>
@@ -2082,7 +2082,7 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="A32" s="4" t="s">
         <v>57</v>
       </c>
@@ -2095,7 +2095,7 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" s="4" t="s">
         <v>57</v>
       </c>
@@ -2108,7 +2108,7 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" s="4" t="s">
         <v>57</v>
       </c>
@@ -2118,7 +2118,7 @@
       <c r="G34" s="10"/>
       <c r="H34" s="11"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" s="4" t="s">
         <v>57</v>
       </c>
@@ -2134,7 +2134,7 @@
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" s="4" t="s">
         <v>57</v>
       </c>
@@ -2147,7 +2147,7 @@
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" s="4" t="s">
         <v>57</v>
       </c>
@@ -2160,7 +2160,7 @@
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" s="4" t="s">
         <v>57</v>
       </c>
@@ -2173,7 +2173,7 @@
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" s="4" t="s">
         <v>57</v>
       </c>
@@ -2186,7 +2186,7 @@
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" s="4" t="s">
         <v>57</v>
       </c>
@@ -2202,7 +2202,7 @@
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="33">
       <c r="A41" s="4" t="s">
         <v>57</v>
       </c>
@@ -2218,7 +2218,7 @@
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" s="4" t="s">
         <v>57</v>
       </c>
@@ -2234,7 +2234,7 @@
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" s="4" t="s">
         <v>57</v>
       </c>
@@ -2244,7 +2244,7 @@
       <c r="G43" s="10"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" s="4" t="s">
         <v>57</v>
       </c>
@@ -2257,7 +2257,7 @@
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" s="4" t="s">
         <v>76</v>
       </c>
@@ -2273,7 +2273,7 @@
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" s="4" t="s">
         <v>76</v>
       </c>
@@ -2289,7 +2289,7 @@
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" s="4" t="s">
         <v>76</v>
       </c>
@@ -2305,7 +2305,7 @@
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" s="4" t="s">
         <v>76</v>
       </c>
@@ -2321,7 +2321,7 @@
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="A49" s="4" t="s">
         <v>76</v>
       </c>
@@ -2337,7 +2337,7 @@
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8">
       <c r="A50" s="4" t="s">
         <v>76</v>
       </c>
@@ -2353,7 +2353,7 @@
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8">
       <c r="A51" s="4" t="s">
         <v>76</v>
       </c>
@@ -2369,7 +2369,7 @@
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="A52" s="4" t="s">
         <v>76</v>
       </c>
@@ -2385,7 +2385,7 @@
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="A53" s="4" t="s">
         <v>76</v>
       </c>
@@ -2395,7 +2395,7 @@
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8">
       <c r="A54" s="4" t="s">
         <v>76</v>
       </c>
@@ -2405,7 +2405,7 @@
       <c r="G54" s="13"/>
       <c r="H54" s="10"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="A55" s="4" t="s">
         <v>76</v>
       </c>
@@ -2418,7 +2418,7 @@
       <c r="G55" s="13"/>
       <c r="H55" s="10"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8">
       <c r="A56" s="4" t="s">
         <v>57</v>
       </c>
@@ -2431,7 +2431,7 @@
       <c r="G56" s="13"/>
       <c r="H56" s="10"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8">
       <c r="A57" s="4" t="s">
         <v>57</v>
       </c>
@@ -2445,7 +2445,7 @@
       <c r="G57" s="13"/>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8">
       <c r="A58" s="4" t="s">
         <v>57</v>
       </c>
@@ -2459,7 +2459,7 @@
       <c r="G58" s="13"/>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="A59" s="4" t="s">
         <v>57</v>
       </c>
@@ -2473,121 +2473,121 @@
       <c r="G59" s="13"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8">
       <c r="D60"/>
       <c r="G60" s="13"/>
       <c r="H60" s="10"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="D61"/>
       <c r="G61" s="13"/>
       <c r="H61" s="10"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="G62" s="13"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8">
       <c r="G63" s="13"/>
       <c r="H63" s="10"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8">
       <c r="G64" s="13"/>
       <c r="H64" s="10"/>
     </row>
-    <row r="65" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="7:8">
       <c r="G65" s="13"/>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="7:8">
       <c r="G66" s="13"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="7:8">
       <c r="G67" s="13"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="7:8">
       <c r="G68" s="13"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="7:8">
       <c r="G69" s="13"/>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="7:8">
       <c r="G70" s="13"/>
       <c r="H70" s="10"/>
     </row>
-    <row r="71" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="7:8">
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
     </row>
-    <row r="72" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="7:8">
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
     </row>
-    <row r="73" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="7:8">
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="7:8">
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
     </row>
-    <row r="75" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="7:8">
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
     </row>
-    <row r="76" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="7:8">
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="7:8">
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="7:8">
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
     </row>
-    <row r="79" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="7:8">
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
     </row>
-    <row r="80" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="7:8">
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
     </row>
-    <row r="81" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="7:8">
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="7:8">
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="7:8">
       <c r="G83" s="10"/>
       <c r="H83" s="11"/>
     </row>
-    <row r="84" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="7:8">
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
     </row>
-    <row r="85" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="7:8">
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
     </row>
-    <row r="86" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="7:8">
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
     </row>
-    <row r="87" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="7:8">
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
     </row>
-    <row r="88" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="7:8">
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
     </row>
@@ -2601,11 +2601,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A919A1-E034-4E6D-8034-EB37F251255F}">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="35.7109375" style="6" customWidth="1"/>
@@ -2617,7 +2617,7 @@
     <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="3" t="s">
         <v>54</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
         <v>87</v>
       </c>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>57</v>
       </c>
@@ -2650,7 +2650,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>57</v>
       </c>
@@ -2661,7 +2661,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -2674,7 +2674,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
         <v>57</v>
       </c>
@@ -2687,7 +2687,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
         <v>57</v>
       </c>
@@ -2700,7 +2700,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
         <v>57</v>
       </c>
@@ -2711,7 +2711,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
@@ -2724,7 +2724,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
         <v>57</v>
       </c>
@@ -2737,7 +2737,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
         <v>57</v>
       </c>
@@ -2748,7 +2748,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
         <v>57</v>
       </c>
@@ -2761,7 +2761,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
         <v>57</v>
       </c>
@@ -2774,7 +2774,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>57</v>
       </c>
@@ -2787,7 +2787,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
         <v>57</v>
       </c>
@@ -2800,7 +2800,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="4" t="s">
         <v>57</v>
       </c>
@@ -2813,7 +2813,7 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
         <v>57</v>
       </c>
@@ -2824,7 +2824,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
         <v>57</v>
       </c>
@@ -2835,7 +2835,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="4" t="s">
         <v>57</v>
       </c>
@@ -2848,7 +2848,7 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" s="4" t="s">
         <v>57</v>
       </c>
@@ -2861,7 +2861,7 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="17.25">
       <c r="A21" s="4" t="s">
         <v>57</v>
       </c>
@@ -2874,7 +2874,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" s="4" t="s">
         <v>57</v>
       </c>
@@ -2885,7 +2885,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
         <v>57</v>
       </c>
@@ -2896,7 +2896,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
@@ -2907,7 +2907,7 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" s="4" t="s">
         <v>57</v>
       </c>
@@ -2918,7 +2918,7 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" s="4" t="s">
         <v>57</v>
       </c>
@@ -2931,7 +2931,7 @@
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
@@ -2942,7 +2942,7 @@
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" s="4" t="s">
         <v>57</v>
       </c>
@@ -2953,7 +2953,7 @@
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" s="4" t="s">
         <v>57</v>
       </c>
@@ -2966,7 +2966,7 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" s="4" t="s">
         <v>57</v>
       </c>
@@ -2977,7 +2977,7 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" s="4" t="s">
         <v>57</v>
       </c>
@@ -2988,7 +2988,7 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" s="4" t="s">
         <v>57</v>
       </c>
@@ -2999,7 +2999,7 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" s="4" t="s">
         <v>57</v>
       </c>
@@ -3010,7 +3010,7 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" s="4" t="s">
         <v>57</v>
       </c>
@@ -3021,7 +3021,7 @@
       <c r="G34" s="10"/>
       <c r="H34" s="11"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" s="4" t="s">
         <v>57</v>
       </c>
@@ -3034,7 +3034,7 @@
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" s="4" t="s">
         <v>57</v>
       </c>
@@ -3045,7 +3045,7 @@
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" s="4" t="s">
         <v>57</v>
       </c>
@@ -3056,7 +3056,7 @@
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" s="4" t="s">
         <v>57</v>
       </c>
@@ -3067,7 +3067,7 @@
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" s="4" t="s">
         <v>57</v>
       </c>
@@ -3078,7 +3078,7 @@
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" s="4" t="s">
         <v>57</v>
       </c>
@@ -3091,7 +3091,7 @@
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="33">
       <c r="A41" s="4" t="s">
         <v>57</v>
       </c>
@@ -3104,7 +3104,7 @@
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" s="4" t="s">
         <v>57</v>
       </c>
@@ -3117,7 +3117,7 @@
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" s="4" t="s">
         <v>57</v>
       </c>
@@ -3128,7 +3128,7 @@
       <c r="G43" s="10"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" s="4" t="s">
         <v>57</v>
       </c>
@@ -3139,7 +3139,7 @@
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" s="4" t="s">
         <v>76</v>
       </c>
@@ -3152,7 +3152,7 @@
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" s="4" t="s">
         <v>76</v>
       </c>
@@ -3165,7 +3165,7 @@
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" s="4" t="s">
         <v>76</v>
       </c>
@@ -3178,7 +3178,7 @@
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" s="4" t="s">
         <v>76</v>
       </c>
@@ -3191,7 +3191,7 @@
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="A49" s="4" t="s">
         <v>76</v>
       </c>
@@ -3204,7 +3204,7 @@
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8">
       <c r="A50" s="4" t="s">
         <v>76</v>
       </c>
@@ -3217,7 +3217,7 @@
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8">
       <c r="A51" s="4" t="s">
         <v>76</v>
       </c>
@@ -3230,7 +3230,7 @@
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="A52" s="4" t="s">
         <v>76</v>
       </c>
@@ -3243,7 +3243,7 @@
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="A53" s="4" t="s">
         <v>76</v>
       </c>
@@ -3254,7 +3254,7 @@
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8">
       <c r="A54" s="4" t="s">
         <v>76</v>
       </c>
@@ -3265,7 +3265,7 @@
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="A55" s="4" t="s">
         <v>76</v>
       </c>
@@ -3278,142 +3278,142 @@
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8">
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
     </row>
-    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15">
       <c r="B57" s="8"/>
       <c r="C57"/>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15">
       <c r="B58" s="8"/>
       <c r="C58"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="C59"/>
       <c r="G59" s="10"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8">
       <c r="C60"/>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="C61"/>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="G62" s="10"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8">
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8">
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
     </row>
-    <row r="65" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="7:8">
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="7:8">
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="7:8">
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="7:8">
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="7:8">
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="7:8">
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
     </row>
-    <row r="71" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="7:8">
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
     </row>
-    <row r="72" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="7:8">
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
     </row>
-    <row r="73" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="7:8">
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="7:8">
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
     </row>
-    <row r="75" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="7:8">
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
     </row>
-    <row r="76" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="7:8">
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="7:8">
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="7:8">
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
     </row>
-    <row r="79" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="7:8">
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
     </row>
-    <row r="80" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="7:8">
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
     </row>
-    <row r="81" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="7:8">
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="7:8">
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="7:8">
       <c r="G83" s="10"/>
       <c r="H83" s="11"/>
     </row>
-    <row r="84" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="7:8">
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
     </row>
-    <row r="85" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="7:8">
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
     </row>
-    <row r="86" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="7:8">
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
     </row>
-    <row r="87" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="7:8">
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
     </row>
-    <row r="88" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="7:8">
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
     </row>
@@ -3431,13 +3431,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.5703125" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>2017</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="10" t="s">
         <v>88</v>
       </c>
@@ -3453,13 +3453,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="10" t="s">
         <v>89</v>
       </c>
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="10" t="s">
         <v>72</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
         <v>91</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="10" t="s">
         <v>93</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
         <v>95</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="10" t="s">
         <v>97</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="10" t="s">
         <v>98</v>
       </c>
@@ -3507,19 +3507,19 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="10" t="s">
         <v>70</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="10" t="s">
         <v>74</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="10" t="s">
         <v>102</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="10" t="s">
         <v>103</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
         <v>104</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="10" t="s">
         <v>105</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="10" t="s">
         <v>107</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="10" t="s">
         <v>108</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="10" t="s">
         <v>109</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="10" t="s">
         <v>110</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="10" t="s">
         <v>58</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="10" t="s">
         <v>113</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="10" t="s">
         <v>115</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="10" t="s">
         <v>117</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="10" t="s">
         <v>119</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="10" t="s">
         <v>121</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="10" t="s">
         <v>123</v>
       </c>
@@ -3655,13 +3655,13 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="10" t="s">
         <v>125</v>
       </c>
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="10" t="s">
         <v>60</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="10" t="s">
         <v>61</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="10" t="s">
         <v>68</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="10" t="s">
         <v>62</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="10" t="s">
         <v>130</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="10" t="s">
         <v>132</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="10" t="s">
         <v>63</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="10" t="s">
         <v>64</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="10" t="s">
         <v>65</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="10" t="s">
         <v>66</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="10" t="s">
         <v>71</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="10" t="s">
         <v>67</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="10" t="s">
         <v>69</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="10" t="s">
         <v>141</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="10" t="s">
         <v>143</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="10" t="s">
         <v>145</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" s="10" t="s">
         <v>147</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" s="10" t="s">
         <v>149</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" s="10" t="s">
         <v>151</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" s="10" t="s">
         <v>153</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" s="10" t="s">
         <v>75</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" s="10" t="s">
         <v>156</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" s="10" t="s">
         <v>158</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" s="13" t="s">
         <v>160</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" s="13" t="s">
         <v>162</v>
       </c>
@@ -3861,13 +3861,13 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" s="13" t="s">
         <v>164</v>
       </c>
       <c r="B55" s="10"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" s="13" t="s">
         <v>165</v>
       </c>
@@ -3875,13 +3875,13 @@
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" s="13" t="s">
         <v>167</v>
       </c>
       <c r="B57" s="10"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" s="13" t="s">
         <v>168</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" s="13" t="s">
         <v>170</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" s="13" t="s">
         <v>172</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" s="13" t="s">
         <v>174</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" s="13" t="s">
         <v>176</v>
       </c>
@@ -3921,13 +3921,13 @@
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" s="13" t="s">
         <v>177</v>
       </c>
       <c r="B63" s="10"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" s="13" t="s">
         <v>178</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" s="13" t="s">
         <v>79</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" s="13" t="s">
         <v>181</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" s="13" t="s">
         <v>82</v>
       </c>
@@ -3959,13 +3959,13 @@
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" s="13"/>
       <c r="B68" s="10" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" s="13" t="s">
         <v>81</v>
       </c>
@@ -3973,13 +3973,13 @@
         <v>185</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" s="10" t="s">
         <v>86</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" s="10" t="s">
         <v>78</v>
       </c>
@@ -3995,13 +3995,13 @@
         <v>188</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B73" s="10"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" s="10" t="s">
         <v>189</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" s="10" t="s">
         <v>191</v>
       </c>
@@ -4017,13 +4017,13 @@
         <v>192</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" s="10" t="s">
         <v>193</v>
       </c>
       <c r="B76" s="10"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" s="10" t="s">
         <v>83</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78" s="10" t="s">
         <v>84</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" s="10" t="s">
         <v>196</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80" s="10" t="s">
         <v>85</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81" s="10" t="s">
         <v>199</v>
       </c>
@@ -4063,13 +4063,13 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82" s="10"/>
       <c r="B82" s="11" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83" s="10" t="s">
         <v>202</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84" s="10" t="s">
         <v>204</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85" s="10" t="s">
         <v>206</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2">
       <c r="A86" s="10" t="s">
         <v>208</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
         <v>210</v>
@@ -4116,18 +4116,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FD38E8-DCE1-4156-BA4C-4CE47C822C6C}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
     <col min="2" max="2" width="47.140625" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="16" t="s">
         <v>251</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="16.5">
       <c r="A2" t="s">
         <v>252</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="16.5">
       <c r="A3" t="s">
         <v>253</v>
       </c>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.5">
       <c r="A4" t="s">
         <v>213</v>
       </c>
@@ -4188,7 +4188,7 @@
       </c>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16.5">
       <c r="A5" t="s">
         <v>254</v>
       </c>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" t="s">
         <v>255</v>
       </c>
@@ -4218,7 +4218,7 @@
       </c>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" t="s">
         <v>256</v>
       </c>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16.5">
       <c r="A8" t="s">
         <v>229</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16.5">
       <c r="A9" t="s">
         <v>230</v>
       </c>
@@ -4262,7 +4262,7 @@
       </c>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.5">
       <c r="A10" t="s">
         <v>231</v>
       </c>
@@ -4277,7 +4277,7 @@
       </c>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16.5">
       <c r="A11" t="s">
         <v>232</v>
       </c>
@@ -4292,7 +4292,7 @@
       </c>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16.5">
       <c r="A12" t="s">
         <v>233</v>
       </c>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16.5">
       <c r="A13" t="s">
         <v>234</v>
       </c>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16.5">
       <c r="A14" t="s">
         <v>235</v>
       </c>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16.5">
       <c r="A15" t="s">
         <v>257</v>
       </c>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16.5">
       <c r="A16" t="s">
         <v>258</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16.5">
       <c r="A17" t="s">
         <v>259</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16.5">
       <c r="A18" t="s">
         <v>260</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16.5">
       <c r="A19" t="s">
         <v>261</v>
       </c>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16.5">
       <c r="A20" t="s">
         <v>262</v>
       </c>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16.5">
       <c r="A21" t="s">
         <v>238</v>
       </c>
@@ -4439,7 +4439,7 @@
       </c>
       <c r="E21" s="14"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16.5">
       <c r="A22" t="s">
         <v>263</v>
       </c>
@@ -4454,7 +4454,7 @@
       </c>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16.5">
       <c r="A23" t="s">
         <v>239</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" t="s">
         <v>240</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25" t="s">
         <v>241</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" t="s">
         <v>242</v>
       </c>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16.5">
       <c r="A27" t="s">
         <v>243</v>
       </c>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" t="s">
         <v>244</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16.5">
       <c r="A29" t="s">
         <v>245</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16.5">
       <c r="A30" t="s">
         <v>246</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="16.5">
       <c r="A31" t="s">
         <v>247</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="17.25">
       <c r="A32" t="s">
         <v>248</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="16.5">
       <c r="A33" t="s">
         <v>264</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="16.5">
       <c r="A34" t="s">
         <v>265</v>
       </c>
@@ -4625,7 +4625,7 @@
       </c>
       <c r="E34" s="10"/>
     </row>
-    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="16.5">
       <c r="A35" t="s">
         <v>266</v>
       </c>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="E35" s="10"/>
     </row>
-    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="16.5">
       <c r="A36" t="s">
         <v>267</v>
       </c>
@@ -4655,7 +4655,7 @@
       </c>
       <c r="E36" s="10"/>
     </row>
-    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="16.5">
       <c r="A37" t="s">
         <v>249</v>
       </c>
@@ -4670,7 +4670,7 @@
       </c>
       <c r="E37" s="10"/>
     </row>
-    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="16.5">
       <c r="A38" t="s">
         <v>268</v>
       </c>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="E38" s="14"/>
     </row>
-    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="16.5">
       <c r="A39" t="s">
         <v>269</v>
       </c>
@@ -4700,7 +4700,7 @@
       </c>
       <c r="E39" s="10"/>
     </row>
-    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="16.5">
       <c r="A40" t="s">
         <v>270</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="16.5">
       <c r="A41" t="s">
         <v>271</v>
       </c>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="E41" s="14"/>
     </row>
-    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="16.5">
       <c r="A42" t="s">
         <v>272</v>
       </c>
@@ -4744,7 +4744,7 @@
       </c>
       <c r="E42" s="10"/>
     </row>
-    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="16.5">
       <c r="A43" t="s">
         <v>250</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="16.5">
       <c r="A44" t="s">
         <v>214</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="16.5">
       <c r="A45" t="s">
         <v>215</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="16.5">
       <c r="A46" t="s">
         <v>216</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="16.5">
       <c r="A47" t="s">
         <v>217</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="16.5">
       <c r="A48" t="s">
         <v>218</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="16.5">
       <c r="A49" t="s">
         <v>219</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="16.5">
       <c r="A50" s="15" t="s">
         <v>220</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="16.5">
       <c r="A51" t="s">
         <v>273</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="16.5">
       <c r="A52" t="s">
         <v>221</v>
       </c>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="E52" s="10"/>
     </row>
-    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="16.5">
       <c r="A53" t="s">
         <v>274</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="16.5">
       <c r="A54" t="s">
         <v>275</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="16.5">
       <c r="A55" t="s">
         <v>276</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="16.5">
       <c r="A56" t="s">
         <v>222</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="33">
       <c r="A57" t="s">
         <v>223</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="16.5">
       <c r="A58" t="s">
         <v>277</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="16.5">
       <c r="A59" t="s">
         <v>278</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="16.5">
       <c r="A60" s="15" t="s">
         <v>224</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="16.5">
       <c r="A61" t="s">
         <v>279</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="16.5">
       <c r="A62" t="s">
         <v>225</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="16.5">
       <c r="A63" t="s">
         <v>226</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="16.5">
       <c r="A64" t="s">
         <v>227</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="16.5">
       <c r="A65" t="s">
         <v>228</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="16.5">
       <c r="A66" t="s">
         <v>236</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="16.5">
       <c r="A67" t="s">
         <v>237</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="16.5">
       <c r="C68" s="1" t="s">
         <v>2</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="16.5">
       <c r="C69" s="1" t="s">
         <v>41</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="16.5">
       <c r="C70" s="1" t="s">
         <v>51</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="16.5">
       <c r="C71" s="1" t="s">
         <v>52</v>
       </c>
@@ -5143,17 +5143,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05164C71-A70B-4BC7-B5B5-94FB28BB5C0F}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="16" t="s">
         <v>302</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="16.5">
       <c r="A2" s="18" t="s">
         <v>194</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="16.5">
       <c r="A3" s="18" t="s">
         <v>197</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="16.5">
       <c r="A4" s="18" t="s">
         <v>201</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16.5">
       <c r="A5" s="18" t="s">
         <v>127</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="16.5">
       <c r="A6" s="18" t="s">
         <v>129</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="16.5">
       <c r="A7" s="18" t="s">
         <v>203</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="16.5">
       <c r="A8" s="18" t="s">
         <v>155</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="16.5">
       <c r="A9" s="18" t="s">
         <v>195</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="16.5">
       <c r="A10" s="18" t="s">
         <v>135</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="16.5">
       <c r="A11" s="18" t="s">
         <v>126</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="16.5">
       <c r="A12" s="18" t="s">
         <v>137</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="16.5">
       <c r="A13" s="18" t="s">
         <v>134</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="16.5">
       <c r="A14" s="18" t="s">
         <v>136</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="16.5">
       <c r="A15" s="18" t="s">
         <v>140</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="18" t="s">
         <v>70</v>
       </c>
@@ -5343,17 +5343,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAB965F-4D5B-450A-BC9E-4BCCD940211B}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="55" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="16" t="s">
         <v>307</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="16.5">
       <c r="B2" t="s">
         <v>252</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="16.5">
       <c r="B3" t="s">
         <v>253</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="16.5">
       <c r="B4" t="s">
         <v>213</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16.5">
       <c r="B5" t="s">
         <v>254</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="16.5">
       <c r="B6" t="s">
         <v>255</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="16.5">
       <c r="B7" t="s">
         <v>256</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="16.5">
       <c r="B8" t="s">
         <v>229</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="16.5">
       <c r="B9" t="s">
         <v>230</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="16.5">
       <c r="B10" t="s">
         <v>231</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="16.5">
       <c r="B11" t="s">
         <v>232</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="16.5">
       <c r="B12" t="s">
         <v>233</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="16.5">
       <c r="B13" t="s">
         <v>234</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="16.5">
       <c r="B14" t="s">
         <v>235</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="16.5">
       <c r="B15" t="s">
         <v>257</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="16.5">
       <c r="B16" t="s">
         <v>258</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" ht="16.5">
       <c r="B17" t="s">
         <v>259</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="16.5">
       <c r="B18" t="s">
         <v>260</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" ht="16.5">
       <c r="B19" t="s">
         <v>261</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" ht="16.5">
       <c r="B20" t="s">
         <v>262</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" ht="16.5">
       <c r="B21" t="s">
         <v>238</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" ht="16.5">
       <c r="B22" t="s">
         <v>263</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" ht="16.5">
       <c r="B23" t="s">
         <v>239</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" ht="16.5">
       <c r="B24" t="s">
         <v>240</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" ht="16.5">
       <c r="B25" t="s">
         <v>241</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" ht="16.5">
       <c r="B26" t="s">
         <v>242</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" ht="16.5">
       <c r="B27" t="s">
         <v>243</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" ht="16.5">
       <c r="B28" t="s">
         <v>244</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" ht="16.5">
       <c r="B29" t="s">
         <v>245</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" ht="16.5">
       <c r="B30" t="s">
         <v>246</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" ht="16.5">
       <c r="B31" t="s">
         <v>247</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" ht="17.25">
       <c r="B32" t="s">
         <v>248</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" ht="16.5">
       <c r="B33" t="s">
         <v>264</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" ht="16.5">
       <c r="B34" t="s">
         <v>265</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" ht="16.5">
       <c r="B35" t="s">
         <v>266</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" ht="16.5">
       <c r="B36" t="s">
         <v>267</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" ht="16.5">
       <c r="B37" t="s">
         <v>249</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" ht="16.5">
       <c r="B38" t="s">
         <v>268</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" ht="16.5">
       <c r="B39" t="s">
         <v>269</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" ht="16.5">
       <c r="B40" t="s">
         <v>270</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" ht="16.5">
       <c r="B41" t="s">
         <v>271</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" ht="16.5">
       <c r="B42" t="s">
         <v>272</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" ht="16.5">
       <c r="B43" t="s">
         <v>250</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" ht="16.5">
       <c r="B44" t="s">
         <v>214</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4" ht="16.5">
       <c r="B45" t="s">
         <v>215</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4" ht="16.5">
       <c r="B46" t="s">
         <v>216</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:4" ht="16.5">
       <c r="B47" t="s">
         <v>217</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:4" ht="16.5">
       <c r="B48" t="s">
         <v>218</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" ht="16.5">
       <c r="B49" t="s">
         <v>219</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" ht="16.5">
       <c r="B50" s="15" t="s">
         <v>220</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" ht="16.5">
       <c r="B51" t="s">
         <v>273</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" ht="16.5">
       <c r="B52" t="s">
         <v>221</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" ht="16.5">
       <c r="B53" t="s">
         <v>274</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" ht="16.5">
       <c r="B54" t="s">
         <v>275</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" ht="16.5">
       <c r="B55" t="s">
         <v>276</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4" ht="16.5">
       <c r="B56" t="s">
         <v>222</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4" ht="33">
       <c r="B57" t="s">
         <v>223</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4" ht="16.5">
       <c r="B58" t="s">
         <v>277</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4" ht="16.5">
       <c r="B59" t="s">
         <v>278</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4" ht="16.5">
       <c r="B60" s="15" t="s">
         <v>224</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:4" ht="16.5">
       <c r="B61" t="s">
         <v>279</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:4" ht="16.5">
       <c r="B62" t="s">
         <v>225</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:4" ht="16.5">
       <c r="B63" t="s">
         <v>226</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:4" ht="16.5">
       <c r="B64" t="s">
         <v>227</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="65" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:4" ht="16.5">
       <c r="B65" t="s">
         <v>228</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="66" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4" ht="16.5">
       <c r="B66" t="s">
         <v>236</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:4" ht="16.5">
       <c r="B67" t="s">
         <v>237</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="68" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:4" ht="16.5">
       <c r="C68" s="1" t="s">
         <v>2</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:4" ht="16.5">
       <c r="C69" s="1" t="s">
         <v>41</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:4" ht="16.5">
       <c r="C70" s="1" t="s">
         <v>51</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:4" ht="16.5">
       <c r="C71" s="1" t="s">
         <v>52</v>
       </c>
@@ -6143,9 +6143,9 @@
       <selection activeCell="AD24" sqref="AD24:AE24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="16" t="s">
         <v>286</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>293</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>294</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>295</v>
       </c>

--- a/config/emissions_to_energy_mappings.xlsx
+++ b/config/emissions_to_energy_mappings.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aperc-my.sharepoint.com/personal/finbar_maunsell_aperc_or_jp/Documents/Documents/Github/aperc-emissions/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="13_ncr:1_{2EC4C934-4881-4B50-B407-0AD672430172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{955330BC-B0C5-4338-AE24-FE76D59EFF8C}"/>
+  <xr:revisionPtr revIDLastSave="311" documentId="13_ncr:1_{2EC4C934-4881-4B50-B407-0AD672430172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18C94AEC-11B3-467B-AD2E-FFBD04B25A4E}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="6420" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MAP_Hugh" sheetId="13" r:id="rId1"/>
-    <sheet name="MAP_old_Hugh" sheetId="11" r:id="rId2"/>
-    <sheet name="EGEDA_Hugh" sheetId="12" r:id="rId3"/>
+    <sheet name="MAP_Hugh" sheetId="13" state="hidden" r:id="rId1"/>
+    <sheet name="MAP_old_Hugh" sheetId="11" state="hidden" r:id="rId2"/>
+    <sheet name="EGEDA_Hugh" sheetId="12" state="hidden" r:id="rId3"/>
     <sheet name="00APEC_map" sheetId="14" r:id="rId4"/>
     <sheet name="transport_8th" sheetId="16" r:id="rId5"/>
     <sheet name="outlook_8th" sheetId="17" r:id="rId6"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="311">
   <si>
     <t xml:space="preserve">Fuel type </t>
   </si>
@@ -896,18 +896,12 @@
     <t>Zero</t>
   </si>
   <si>
-    <t>hugh_emissions_factors_fuel_code</t>
-  </si>
-  <si>
     <t>IPCC_Account</t>
   </si>
   <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>Not previously mapped in Hughs output</t>
-  </si>
-  <si>
     <t>Placeholder value set by Finbar Maunsell</t>
   </si>
   <si>
@@ -926,9 +920,6 @@
     <t>Definitely</t>
   </si>
   <si>
-    <t>Unlikely</t>
-  </si>
-  <si>
     <t>00APEC_map</t>
   </si>
   <si>
@@ -950,9 +941,6 @@
     <t>Previously used by hugh and the modelling team to generate emissions factors for 8th edition outlook</t>
   </si>
   <si>
-    <t>Was used for 8th eidtion oputlook</t>
-  </si>
-  <si>
     <t>Placeholder</t>
   </si>
   <si>
@@ -974,14 +962,35 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Outlook_8th_fuel_code</t>
+    <t>fuel_code</t>
+  </si>
+  <si>
+    <t>outlook_8th</t>
+  </si>
+  <si>
+    <t>transport_8th</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finn </t>
+  </si>
+  <si>
+    <t>Finn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created to map from the fuel codes in outlook to the ipcc fuel codes. </t>
+  </si>
+  <si>
+    <t>Unlikely (Sheet Hidden)</t>
+  </si>
+  <si>
+    <t>Was used for 8th eidtion oputlook (Sheet Hidden)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1048,8 +1057,23 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1074,6 +1098,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1087,21 +1117,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1109,14 +1134,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1143,16 +1168,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1935480</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>46809</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>197304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>388076</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>217985</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1167,8 +1192,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2545080" y="655320"/>
-          <a:ext cx="8785860" cy="2362200"/>
+          <a:off x="6542859" y="1035504"/>
+          <a:ext cx="9542417" cy="2392406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1204,12 +1229,147 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-SG" sz="1100"/>
-            <a:t>Would like to do this but its not clear what fuel types</a:t>
+            <a:t>based on: </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-SG" sz="1100" baseline="0"/>
-            <a:t> are in the outlook due to a lack of a central dataframe</a:t>
+            <a:t>https://aperc-my.sharepoint.com/personal/finbar_maunsell_aperc_or_jp/Documents/Documents/Github/aperc-emissions/config/OSeMOSYS_mapping_2021.xlsx?web=1</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-SG" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100" baseline="0"/>
+            <a:t>These are some of the categories in the ipcc data we couldnt find:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Brown coal briquettes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Gas coke</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Oxygen steel furnace gas</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Landfill gas</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Orimulsion</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Waste oils</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sludge gas</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-SG" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-SG" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100" baseline="0"/>
+            <a:t>Note that for some of the categories (the ones highlighted with yellow) i just made a quick guess and assumed them to be a fuel that might match the fuel code. for example, 1_x_coal thermal was just assumed to be sub-bit coal. This is probably not correct but it can be expected there is not too much issue wgiven the margin of error occuring in the outlook anyway</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-SG" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1619,977 +1779,968 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A018912-1481-4249-B160-53474B639365}">
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="35.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="32.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="38.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" style="4" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="4"/>
-    <col min="13" max="16384" width="9.140625" style="4"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="7" max="7" width="38.140625" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" s="4" customFormat="1">
+      <c r="A2" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>2017</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>2018</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>134</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>135</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:9" ht="17.25">
-      <c r="A21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C21" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C26" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" t="s">
         <v>72</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="6" t="s">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="6" t="s">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" t="s">
         <v>73</v>
       </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="6" t="s">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" t="s">
         <v>101</v>
       </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="6" t="s">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="6" t="s">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="6" t="s">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="11"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="6" t="s">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="6" t="s">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="6" t="s">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="6" t="s">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="6" t="s">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="6" t="s">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C40" t="s">
         <v>155</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" t="s">
         <v>75</v>
       </c>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8" ht="33">
-      <c r="A41" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="7" t="s">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C41" t="s">
         <v>192</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" t="s">
         <v>77</v>
       </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="6" t="s">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C42" t="s">
         <v>188</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" t="s">
         <v>78</v>
       </c>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="6" t="s">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G43" s="10"/>
-      <c r="H43" s="11"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="6" t="s">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="4" t="s">
+      <c r="A45" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C45" t="s">
         <v>180</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" t="s">
         <v>79</v>
       </c>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="4" t="s">
+      <c r="A46" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" t="s">
         <v>80</v>
       </c>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="4" t="s">
+      <c r="A47" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C47" t="s">
         <v>185</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" t="s">
         <v>81</v>
       </c>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="4" t="s">
+      <c r="A48" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C48" t="s">
         <v>183</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" t="s">
         <v>82</v>
       </c>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="4" t="s">
+      <c r="A49" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C49" t="s">
         <v>194</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" t="s">
         <v>83</v>
       </c>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="4" t="s">
+      <c r="A50" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C50" t="s">
         <v>195</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" t="s">
         <v>84</v>
       </c>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="4" t="s">
+      <c r="A51" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C51" t="s">
         <v>198</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" t="s">
         <v>85</v>
       </c>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="4" t="s">
+      <c r="A52" t="s">
         <v>76</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C52" t="s">
         <v>187</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" t="s">
         <v>86</v>
       </c>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="4" t="s">
+      <c r="A53" t="s">
         <v>76</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="4" t="s">
+      <c r="A54" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G54" s="13"/>
-      <c r="H54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="4" t="s">
+      <c r="A55" t="s">
         <v>76</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C55" t="s">
         <v>190</v>
       </c>
-      <c r="G55" s="13"/>
-      <c r="H55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="7"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="6" t="s">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="G56" s="13"/>
-      <c r="H56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="6" t="s">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D57"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" s="6" t="s">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="D58"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="6" t="s">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C59" t="s">
         <v>100</v>
       </c>
-      <c r="D59"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="12"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="9"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="D60"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="D61"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="7"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="G62" s="13"/>
-      <c r="H62" s="12"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="9"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="G63" s="13"/>
-      <c r="H63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="7"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="G64" s="13"/>
-      <c r="H64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="7"/>
     </row>
     <row r="65" spans="7:8">
-      <c r="G65" s="13"/>
-      <c r="H65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="7"/>
     </row>
     <row r="66" spans="7:8">
-      <c r="G66" s="13"/>
-      <c r="H66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="7"/>
     </row>
     <row r="67" spans="7:8">
-      <c r="G67" s="13"/>
-      <c r="H67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="7"/>
     </row>
     <row r="68" spans="7:8">
-      <c r="G68" s="13"/>
-      <c r="H68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="7"/>
     </row>
     <row r="69" spans="7:8">
-      <c r="G69" s="13"/>
-      <c r="H69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="7"/>
     </row>
     <row r="70" spans="7:8">
-      <c r="G70" s="13"/>
-      <c r="H70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="7"/>
     </row>
     <row r="71" spans="7:8">
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
     </row>
     <row r="72" spans="7:8">
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
     </row>
     <row r="73" spans="7:8">
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
     </row>
     <row r="74" spans="7:8">
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
     </row>
     <row r="75" spans="7:8">
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
     </row>
     <row r="76" spans="7:8">
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
     </row>
     <row r="77" spans="7:8">
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
     </row>
     <row r="78" spans="7:8">
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
     </row>
     <row r="79" spans="7:8">
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
     </row>
     <row r="80" spans="7:8">
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
     </row>
     <row r="81" spans="7:8">
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
     </row>
     <row r="82" spans="7:8">
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
     </row>
     <row r="83" spans="7:8">
-      <c r="G83" s="10"/>
-      <c r="H83" s="11"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="8"/>
     </row>
     <row r="84" spans="7:8">
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
     </row>
     <row r="85" spans="7:8">
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
     </row>
     <row r="86" spans="7:8">
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
     </row>
     <row r="87" spans="7:8">
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
     </row>
     <row r="88" spans="7:8">
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2599,7 +2750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A919A1-E034-4E6D-8034-EB37F251255F}">
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -2607,815 +2758,781 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="35.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
-    <col min="5" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="38.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" style="4" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="4"/>
-    <col min="13" max="16384" width="9.140625" style="4"/>
+    <col min="2" max="2" width="35.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38.140625" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" s="4" customFormat="1">
+      <c r="A2" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>122</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>127</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>129</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>134</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>135</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>136</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>137</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>139</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
         <v>140</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C20" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" ht="17.25">
-      <c r="A21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C21" t="s">
         <v>138</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C22"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C23"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C24"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C25"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C26" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C27"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="6" t="s">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C28"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="6" t="s">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="6" t="s">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C30"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="6" t="s">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C31"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="6" t="s">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C32"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C33"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="6" t="s">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C34"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="11"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="6" t="s">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C35" t="s">
         <v>74</v>
       </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="6" t="s">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C36"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="6" t="s">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C37"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="6" t="s">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C38"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="6" t="s">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C39"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="6" t="s">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C40" t="s">
         <v>155</v>
       </c>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8" ht="33">
-      <c r="A41" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="7" t="s">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C41" t="s">
         <v>192</v>
       </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="6" t="s">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C42" t="s">
         <v>188</v>
       </c>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="6" t="s">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C43"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="11"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="6" t="s">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C44"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="4" t="s">
+      <c r="A45" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C45" t="s">
         <v>180</v>
       </c>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="4" t="s">
+      <c r="A46" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="4" t="s">
+      <c r="A47" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C47" t="s">
         <v>185</v>
       </c>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="4" t="s">
+      <c r="A48" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C48" t="s">
         <v>183</v>
       </c>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="4" t="s">
+      <c r="A49" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C49" t="s">
         <v>194</v>
       </c>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="4" t="s">
+      <c r="A50" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C50" t="s">
         <v>195</v>
       </c>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="4" t="s">
+      <c r="A51" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C51" t="s">
         <v>198</v>
       </c>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="4" t="s">
+      <c r="A52" t="s">
         <v>76</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C52" t="s">
         <v>187</v>
       </c>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="4" t="s">
+      <c r="A53" t="s">
         <v>76</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C53"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="4" t="s">
+      <c r="A54" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C54"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="4" t="s">
+      <c r="A55" t="s">
         <v>76</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C55" t="s">
         <v>190</v>
       </c>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:8" ht="15">
-      <c r="B57" s="8"/>
-      <c r="C57"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
+      <c r="B57" s="5"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:8" ht="15">
-      <c r="B58" s="8"/>
-      <c r="C58"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
+      <c r="B58" s="5"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="C59"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="12"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="9"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="C60"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="C61"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="G62" s="10"/>
-      <c r="H62" s="12"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="9"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
     </row>
     <row r="65" spans="7:8">
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
     </row>
     <row r="66" spans="7:8">
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
     </row>
     <row r="67" spans="7:8">
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
     </row>
     <row r="68" spans="7:8">
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
     </row>
     <row r="69" spans="7:8">
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
     </row>
     <row r="70" spans="7:8">
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
     </row>
     <row r="71" spans="7:8">
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
     </row>
     <row r="72" spans="7:8">
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
     </row>
     <row r="73" spans="7:8">
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
     </row>
     <row r="74" spans="7:8">
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
     </row>
     <row r="75" spans="7:8">
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
     </row>
     <row r="76" spans="7:8">
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
     </row>
     <row r="77" spans="7:8">
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
     </row>
     <row r="78" spans="7:8">
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
     </row>
     <row r="79" spans="7:8">
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
     </row>
     <row r="80" spans="7:8">
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
     </row>
     <row r="81" spans="7:8">
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
     </row>
     <row r="82" spans="7:8">
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
     </row>
     <row r="83" spans="7:8">
-      <c r="G83" s="10"/>
-      <c r="H83" s="11"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="8"/>
     </row>
     <row r="84" spans="7:8">
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
     </row>
     <row r="85" spans="7:8">
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
     </row>
     <row r="86" spans="7:8">
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
     </row>
     <row r="87" spans="7:8">
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
     </row>
     <row r="88" spans="7:8">
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3446,664 +3563,664 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="7" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="7" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="7" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="7" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="7" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B29" s="10"/>
+      <c r="B29" s="7"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="7" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="7" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="8" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="7" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="7" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="7" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="7" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="7" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="8" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="7" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="7" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="7" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="7" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="7" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="7" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="7" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="7" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="7" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B55" s="10"/>
+      <c r="B55" s="7"/>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B57" s="10"/>
+      <c r="B57" s="7"/>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="9" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="7" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="7" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B63" s="10"/>
+      <c r="B63" s="7"/>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="7" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="7" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="7" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="7" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="13"/>
-      <c r="B68" s="10" t="s">
+      <c r="A68" s="10"/>
+      <c r="B68" s="7" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="7" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10" t="s">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="7" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="7" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B73" s="10"/>
+      <c r="B73" s="7"/>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="7" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="7" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B76" s="10"/>
+      <c r="B76" s="7"/>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="7" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="7" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="7" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="7" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="7" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="10"/>
-      <c r="B82" s="11" t="s">
+      <c r="A82" s="7"/>
+      <c r="B82" s="8" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="7" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="10"/>
-      <c r="B87" s="10" t="s">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4114,1022 +4231,864 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FD38E8-DCE1-4156-BA4C-4CE47C822C6C}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
-    <col min="2" max="2" width="47.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.5">
+    </row>
+    <row r="2" spans="1:4" ht="16.5">
       <c r="A2" t="s">
         <v>252</v>
       </c>
-      <c r="B2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5">
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5">
       <c r="A3" t="s">
         <v>253</v>
       </c>
-      <c r="B3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" ht="16.5">
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="16.5">
       <c r="A4" t="s">
         <v>213</v>
       </c>
-      <c r="B4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" ht="16.5">
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" ht="16.5">
       <c r="A5" t="s">
         <v>254</v>
       </c>
-      <c r="B5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:5" ht="16.5">
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" ht="16.5">
       <c r="A6" t="s">
         <v>255</v>
       </c>
-      <c r="B6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" ht="16.5">
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" ht="16.5">
       <c r="A7" t="s">
         <v>256</v>
       </c>
-      <c r="B7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" ht="16.5">
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" ht="16.5">
       <c r="A8" t="s">
         <v>229</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5">
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" ht="16.5">
       <c r="A9" t="s">
         <v>230</v>
       </c>
-      <c r="B9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" ht="16.5">
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" ht="16.5">
       <c r="A10" t="s">
         <v>231</v>
       </c>
-      <c r="B10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" ht="16.5">
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" ht="16.5">
       <c r="A11" t="s">
         <v>232</v>
       </c>
-      <c r="B11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" ht="16.5">
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" ht="16.5">
       <c r="A12" t="s">
         <v>233</v>
       </c>
-      <c r="B12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" ht="16.5">
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" ht="16.5">
       <c r="A13" t="s">
         <v>234</v>
       </c>
-      <c r="B13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:5" ht="16.5">
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" ht="16.5">
       <c r="A14" t="s">
         <v>235</v>
       </c>
-      <c r="B14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:5" ht="16.5">
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" ht="16.5">
       <c r="A15" t="s">
         <v>257</v>
       </c>
-      <c r="B15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" ht="16.5">
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" ht="16.5">
       <c r="A16" t="s">
         <v>258</v>
       </c>
-      <c r="B16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16.5">
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5">
       <c r="A17" t="s">
         <v>259</v>
       </c>
-      <c r="B17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16.5">
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5">
       <c r="A18" t="s">
         <v>260</v>
       </c>
-      <c r="B18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16.5">
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5">
       <c r="A19" t="s">
         <v>261</v>
       </c>
-      <c r="B19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:5" ht="16.5">
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" ht="16.5">
       <c r="A20" t="s">
         <v>262</v>
       </c>
-      <c r="B20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:5" ht="16.5">
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" ht="16.5">
       <c r="A21" t="s">
         <v>238</v>
       </c>
-      <c r="B21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:5" ht="16.5">
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4" ht="16.5">
       <c r="A22" t="s">
         <v>263</v>
       </c>
-      <c r="B22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="1:5" ht="16.5">
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4" ht="16.5">
       <c r="A23" t="s">
         <v>239</v>
       </c>
-      <c r="B23" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="16.5">
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.5">
       <c r="A24" t="s">
         <v>240</v>
       </c>
-      <c r="B24" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="16.5">
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16.5">
       <c r="A25" t="s">
         <v>241</v>
       </c>
-      <c r="B25" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="16.5">
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.5">
       <c r="A26" t="s">
         <v>242</v>
       </c>
-      <c r="B26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:5" ht="16.5">
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" ht="16.5">
       <c r="A27" t="s">
         <v>243</v>
       </c>
-      <c r="B27" t="s">
-        <v>133</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:5" ht="16.5">
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" ht="16.5">
       <c r="A28" t="s">
         <v>244</v>
       </c>
-      <c r="B28" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="16.5">
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16.5">
       <c r="A29" t="s">
         <v>245</v>
       </c>
-      <c r="B29" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="16.5">
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.5">
       <c r="A30" t="s">
         <v>246</v>
       </c>
-      <c r="B30" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="16.5">
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16.5">
       <c r="A31" t="s">
         <v>247</v>
       </c>
-      <c r="B31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="17.25">
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17.25">
       <c r="A32" t="s">
         <v>248</v>
       </c>
-      <c r="B32" t="s">
-        <v>138</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="16.5">
+      <c r="C32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="16.5">
       <c r="A33" t="s">
         <v>264</v>
       </c>
-      <c r="B33" t="s">
-        <v>139</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="16.5">
+      <c r="C33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="16.5">
       <c r="A34" t="s">
         <v>265</v>
       </c>
-      <c r="B34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="1:5" ht="16.5">
+      <c r="C34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:9" ht="16.5">
       <c r="A35" t="s">
         <v>266</v>
       </c>
-      <c r="B35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D35" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="1:5" ht="16.5">
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:9" ht="16.5">
       <c r="A36" t="s">
         <v>267</v>
       </c>
-      <c r="B36" t="s">
-        <v>146</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="1:5" ht="16.5">
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:9" ht="16.5">
       <c r="A37" t="s">
         <v>249</v>
       </c>
-      <c r="B37" t="s">
-        <v>148</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D37" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="1:5" ht="16.5">
+      <c r="C37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:9" ht="16.5">
       <c r="A38" t="s">
         <v>268</v>
       </c>
-      <c r="B38" t="s">
-        <v>150</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D38" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="14"/>
-    </row>
-    <row r="39" spans="1:5" ht="16.5">
+      <c r="C38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.5">
       <c r="A39" t="s">
         <v>269</v>
       </c>
-      <c r="B39" t="s">
-        <v>152</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D39" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" s="10"/>
-    </row>
-    <row r="40" spans="1:5" ht="16.5">
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:9" ht="16.5">
       <c r="A40" t="s">
         <v>270</v>
       </c>
-      <c r="B40" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="16.5">
+      <c r="C40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="16.5">
       <c r="A41" t="s">
         <v>271</v>
       </c>
-      <c r="B41" t="s">
-        <v>157</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D41" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41" s="14"/>
-    </row>
-    <row r="42" spans="1:5" ht="16.5">
+      <c r="C41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="1:9" ht="16.5">
       <c r="A42" t="s">
         <v>272</v>
       </c>
-      <c r="B42" t="s">
-        <v>159</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="10"/>
-    </row>
-    <row r="43" spans="1:5" ht="16.5">
+      <c r="C42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:9" ht="16.5">
       <c r="A43" t="s">
         <v>250</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>280</v>
       </c>
+      <c r="C43" t="s">
+        <v>296</v>
+      </c>
       <c r="D43" t="s">
-        <v>300</v>
-      </c>
-      <c r="E43" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="16.5">
+        <v>283</v>
+      </c>
+      <c r="I43" s="17"/>
+    </row>
+    <row r="44" spans="1:9" ht="16.5">
       <c r="A44" t="s">
         <v>214</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>280</v>
       </c>
+      <c r="C44" t="s">
+        <v>296</v>
+      </c>
       <c r="D44" t="s">
-        <v>300</v>
-      </c>
-      <c r="E44" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="16.5">
+        <v>283</v>
+      </c>
+      <c r="I44" s="17"/>
+    </row>
+    <row r="45" spans="1:9" ht="16.5">
       <c r="A45" t="s">
         <v>215</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>280</v>
       </c>
+      <c r="C45" t="s">
+        <v>296</v>
+      </c>
       <c r="D45" t="s">
-        <v>300</v>
-      </c>
-      <c r="E45" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="16.5">
+        <v>283</v>
+      </c>
+      <c r="I45" s="17"/>
+    </row>
+    <row r="46" spans="1:9" ht="16.5">
       <c r="A46" t="s">
         <v>216</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>280</v>
       </c>
+      <c r="C46" t="s">
+        <v>296</v>
+      </c>
       <c r="D46" t="s">
-        <v>300</v>
-      </c>
-      <c r="E46" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="16.5">
+        <v>283</v>
+      </c>
+      <c r="I46" s="17"/>
+    </row>
+    <row r="47" spans="1:9" ht="16.5">
       <c r="A47" t="s">
         <v>217</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>280</v>
       </c>
+      <c r="C47" t="s">
+        <v>296</v>
+      </c>
       <c r="D47" t="s">
-        <v>300</v>
-      </c>
-      <c r="E47" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="16.5">
+        <v>283</v>
+      </c>
+      <c r="I47" s="17"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.5">
       <c r="A48" t="s">
         <v>218</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>280</v>
       </c>
+      <c r="C48" t="s">
+        <v>296</v>
+      </c>
       <c r="D48" t="s">
-        <v>300</v>
-      </c>
-      <c r="E48" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="16.5">
+        <v>283</v>
+      </c>
+      <c r="I48" s="17"/>
+    </row>
+    <row r="49" spans="1:9" ht="16.5">
       <c r="A49" t="s">
         <v>219</v>
       </c>
-      <c r="B49" t="s">
-        <v>180</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D49" t="s">
+      <c r="C49" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="16.5">
-      <c r="A50" s="15" t="s">
+      <c r="I49" s="17"/>
+    </row>
+    <row r="50" spans="1:9" ht="16.5">
+      <c r="A50" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B50" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="C50" s="17" t="s">
+      <c r="B50" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="C50" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E50" s="15" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="16.5">
+      <c r="D50" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="16.5">
       <c r="A51" t="s">
         <v>273</v>
       </c>
-      <c r="B51" t="s">
-        <v>183</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D51" t="s">
+      <c r="C51" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="16.5">
+    <row r="52" spans="1:9" ht="16.5">
       <c r="A52" t="s">
         <v>221</v>
       </c>
-      <c r="B52" t="s">
-        <v>184</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D52" t="s">
+      <c r="C52" t="s">
         <v>76</v>
       </c>
-      <c r="E52" s="10"/>
-    </row>
-    <row r="53" spans="1:5" ht="16.5">
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="1:9" ht="16.5">
       <c r="A53" t="s">
         <v>274</v>
       </c>
-      <c r="B53" t="s">
-        <v>185</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D53" t="s">
+      <c r="C53" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="16.5">
+    <row r="54" spans="1:9" ht="16.5">
       <c r="A54" t="s">
         <v>275</v>
       </c>
-      <c r="B54" t="s">
-        <v>187</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D54" t="s">
+      <c r="C54" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16.5">
+    <row r="55" spans="1:9" ht="16.5">
       <c r="A55" t="s">
         <v>276</v>
       </c>
-      <c r="B55" t="s">
-        <v>188</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D55" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="16.5">
+      <c r="C55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="16.5">
       <c r="A56" t="s">
         <v>222</v>
       </c>
-      <c r="B56" t="s">
-        <v>190</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D56" t="s">
+      <c r="C56" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="33">
+    <row r="57" spans="1:9" ht="33">
       <c r="A57" t="s">
         <v>223</v>
       </c>
-      <c r="B57" t="s">
-        <v>192</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D57" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="16.5">
+      <c r="C57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="16.5">
       <c r="A58" t="s">
         <v>277</v>
       </c>
-      <c r="B58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D58" t="s">
+      <c r="C58" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="16.5">
+    <row r="59" spans="1:9" ht="16.5">
       <c r="A59" t="s">
         <v>278</v>
       </c>
-      <c r="B59" t="s">
-        <v>195</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D59" t="s">
+      <c r="C59" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="16.5">
-      <c r="A60" s="15" t="s">
+    <row r="60" spans="1:9" ht="16.5">
+      <c r="A60" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B60" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="C60" s="17" t="s">
+      <c r="B60" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="C60" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E60" s="15" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="16.5">
+      <c r="D60" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="16.5">
       <c r="A61" t="s">
         <v>279</v>
       </c>
-      <c r="B61" t="s">
-        <v>198</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D61" t="s">
+      <c r="C61" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="16.5">
+    <row r="62" spans="1:9" ht="16.5">
       <c r="A62" t="s">
         <v>225</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>280</v>
       </c>
+      <c r="C62" t="s">
+        <v>296</v>
+      </c>
       <c r="D62" t="s">
-        <v>300</v>
-      </c>
-      <c r="E62" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="16.5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="16.5">
       <c r="A63" t="s">
         <v>226</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>280</v>
       </c>
+      <c r="C63" t="s">
+        <v>296</v>
+      </c>
       <c r="D63" t="s">
-        <v>300</v>
-      </c>
-      <c r="E63" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="16.5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="16.5">
       <c r="A64" t="s">
         <v>227</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>280</v>
       </c>
+      <c r="C64" t="s">
+        <v>296</v>
+      </c>
       <c r="D64" t="s">
-        <v>300</v>
-      </c>
-      <c r="E64" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="16.5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="16.5">
       <c r="A65" t="s">
         <v>228</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>280</v>
       </c>
+      <c r="C65" t="s">
+        <v>296</v>
+      </c>
       <c r="D65" t="s">
-        <v>300</v>
-      </c>
-      <c r="E65" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="16.5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="16.5">
       <c r="A66" t="s">
         <v>236</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>280</v>
       </c>
+      <c r="C66" t="s">
+        <v>296</v>
+      </c>
       <c r="D66" t="s">
-        <v>300</v>
-      </c>
-      <c r="E66" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="16.5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="16.5">
       <c r="A67" t="s">
         <v>237</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>280</v>
       </c>
+      <c r="C67" t="s">
+        <v>296</v>
+      </c>
       <c r="D67" t="s">
-        <v>300</v>
-      </c>
-      <c r="E67" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="16.5">
-      <c r="C68" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="16.5">
+      <c r="B68" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D68" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="16.5">
-      <c r="C69" s="1" t="s">
+      <c r="C68" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="16.5">
+      <c r="B69" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D69" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="16.5">
-      <c r="C70" s="1" t="s">
+      <c r="C69" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="16.5">
+      <c r="B70" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D70" t="s">
+      <c r="C70" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="16.5">
-      <c r="C71" s="1" t="s">
+    <row r="71" spans="1:4" ht="16.5">
+      <c r="B71" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D71" t="s">
+      <c r="C71" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5143,8 +5102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05164C71-A70B-4BC7-B5B5-94FB28BB5C0F}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5154,21 +5113,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1" t="s">
         <v>302</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="D1" t="s">
-        <v>306</v>
-      </c>
     </row>
     <row r="2" spans="1:4" ht="16.5">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="13" t="s">
         <v>194</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5179,32 +5138,32 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="6" t="s">
         <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="13" t="s">
         <v>201</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>280</v>
       </c>
       <c r="C4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="13" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5215,28 +5174,28 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
       <c r="D6" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="13" t="s">
         <v>203</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>280</v>
       </c>
       <c r="C7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="13" t="s">
         <v>155</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -5247,7 +5206,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="13" t="s">
         <v>195</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -5258,7 +5217,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="13" t="s">
         <v>135</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -5269,7 +5228,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -5280,7 +5239,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="13" t="s">
         <v>137</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -5291,7 +5250,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="13" t="s">
         <v>134</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -5302,7 +5261,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="13" t="s">
         <v>136</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -5313,7 +5272,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -5324,13 +5283,13 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
       <c r="D16" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -5341,789 +5300,652 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAB965F-4D5B-450A-BC9E-4BCCD940211B}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="55" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5">
-      <c r="B2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5">
+      <c r="A2" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5">
+      <c r="A3" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5">
+      <c r="A4" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.5">
-      <c r="B3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5">
+      <c r="A5" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5">
-      <c r="B4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5">
+      <c r="A6" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5">
-      <c r="B5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5">
+      <c r="A7" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5">
-      <c r="B6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5">
+      <c r="A8" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5">
-      <c r="B7" t="s">
-        <v>256</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.5">
+      <c r="A9" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5">
+      <c r="A10" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5">
-      <c r="B8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5">
-      <c r="B9" t="s">
-        <v>230</v>
-      </c>
-      <c r="C9" s="1" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="16.5">
+      <c r="A11" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.5">
-      <c r="B10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C10" s="1" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="16.5">
+      <c r="A12" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5">
-      <c r="B11" t="s">
-        <v>232</v>
-      </c>
-      <c r="C11" s="1" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="16.5">
+      <c r="A13" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5">
-      <c r="B12" t="s">
-        <v>233</v>
-      </c>
-      <c r="C12" s="1" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="16.5">
+      <c r="A14" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.5">
-      <c r="B13" t="s">
-        <v>234</v>
-      </c>
-      <c r="C13" s="1" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="16.5">
+      <c r="A15" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5">
-      <c r="B14" t="s">
-        <v>235</v>
-      </c>
-      <c r="C14" s="1" t="s">
+    </row>
+    <row r="16" spans="1:7" ht="16.5">
+      <c r="A16" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.5">
-      <c r="B15" t="s">
-        <v>257</v>
-      </c>
-      <c r="C15" s="1" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="16.5">
+      <c r="A17" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.5">
-      <c r="B16" t="s">
-        <v>258</v>
-      </c>
-      <c r="C16" s="1" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="16.5">
+      <c r="A18" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="16.5">
-      <c r="B17" t="s">
-        <v>259</v>
-      </c>
-      <c r="C17" s="1" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="16.5">
+      <c r="A19" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="16.5">
-      <c r="B18" t="s">
-        <v>260</v>
-      </c>
-      <c r="C18" s="1" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="16.5">
+      <c r="A20" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="16.5">
-      <c r="B19" t="s">
-        <v>261</v>
-      </c>
-      <c r="C19" s="1" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="16.5">
+      <c r="A21" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.5">
+      <c r="A22" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="16.5">
-      <c r="B20" t="s">
-        <v>262</v>
-      </c>
-      <c r="C20" s="1" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="16.5">
+      <c r="A23" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16.5">
+      <c r="A24" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="16.5">
-      <c r="B21" t="s">
-        <v>238</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="16.5">
-      <c r="B22" t="s">
-        <v>263</v>
-      </c>
-      <c r="C22" s="1" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="16.5">
+      <c r="A25" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16.5">
+      <c r="A26" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16.5">
+      <c r="A28" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16.5">
+      <c r="A29" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16.5">
+      <c r="A30" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="16.5">
-      <c r="B23" t="s">
-        <v>239</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="16.5">
-      <c r="B24" t="s">
-        <v>240</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="16.5">
-      <c r="B25" t="s">
-        <v>241</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="16.5">
-      <c r="B26" t="s">
-        <v>242</v>
-      </c>
-      <c r="C26" s="1" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="16.5">
+      <c r="A31" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16.5">
+      <c r="A32" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="16.5">
-      <c r="B27" t="s">
-        <v>243</v>
-      </c>
-      <c r="C27" s="1" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="16.5">
+      <c r="A33" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="16.5">
-      <c r="B28" t="s">
-        <v>244</v>
-      </c>
-      <c r="C28" s="1" t="s">
+    </row>
+    <row r="34" spans="1:2" ht="16.5">
+      <c r="A34" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="16.5">
-      <c r="B29" t="s">
-        <v>245</v>
-      </c>
-      <c r="C29" s="1" t="s">
+    </row>
+    <row r="35" spans="1:2" ht="16.5">
+      <c r="A35" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" ht="16.5">
-      <c r="B30" t="s">
-        <v>246</v>
-      </c>
-      <c r="C30" s="1" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="16.5">
+      <c r="A36" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" ht="16.5">
-      <c r="B31" t="s">
-        <v>247</v>
-      </c>
-      <c r="C31" s="1" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="16.5">
+      <c r="A37" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="17.25">
-      <c r="B32" t="s">
-        <v>248</v>
-      </c>
-      <c r="C32" s="1" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="17.25">
+      <c r="A38" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="16.5">
-      <c r="B33" t="s">
-        <v>264</v>
-      </c>
-      <c r="C33" s="1" t="s">
+    </row>
+    <row r="39" spans="1:2" ht="16.5">
+      <c r="A39" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="16.5">
-      <c r="B34" t="s">
-        <v>265</v>
-      </c>
-      <c r="C34" s="1" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="16.5">
+      <c r="A40" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16.5">
+      <c r="A41" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="16.5">
-      <c r="B35" t="s">
-        <v>266</v>
-      </c>
-      <c r="C35" s="1" t="s">
+    </row>
+    <row r="42" spans="1:2" ht="16.5">
+      <c r="A42" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="16.5">
-      <c r="B36" t="s">
-        <v>267</v>
-      </c>
-      <c r="C36" s="1" t="s">
+    </row>
+    <row r="43" spans="1:2" ht="16.5">
+      <c r="A43" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="16.5">
-      <c r="B37" t="s">
-        <v>249</v>
-      </c>
-      <c r="C37" s="1" t="s">
+    </row>
+    <row r="44" spans="1:2" ht="16.5">
+      <c r="A44" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="16.5">
-      <c r="B38" t="s">
-        <v>268</v>
-      </c>
-      <c r="C38" s="1" t="s">
+    </row>
+    <row r="45" spans="1:2" ht="16.5">
+      <c r="A45" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" ht="16.5">
-      <c r="B39" t="s">
-        <v>269</v>
-      </c>
-      <c r="C39" s="1" t="s">
+    </row>
+    <row r="46" spans="1:2" ht="16.5">
+      <c r="A46" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" ht="16.5">
-      <c r="B40" t="s">
-        <v>270</v>
-      </c>
-      <c r="C40" s="1" t="s">
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" ht="16.5">
-      <c r="B41" t="s">
-        <v>271</v>
-      </c>
-      <c r="C41" s="1" t="s">
+    </row>
+    <row r="48" spans="1:2" ht="16.5">
+      <c r="A48" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" ht="16.5">
-      <c r="B42" t="s">
-        <v>272</v>
-      </c>
-      <c r="C42" s="1" t="s">
+    </row>
+    <row r="49" spans="1:2" ht="16.5">
+      <c r="A49" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="16.5">
+      <c r="A50" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" ht="16.5">
-      <c r="B43" t="s">
-        <v>250</v>
-      </c>
-      <c r="C43" s="1" t="s">
+    </row>
+    <row r="51" spans="1:2" ht="16.5">
+      <c r="A51" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D43" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" ht="16.5">
-      <c r="B44" t="s">
-        <v>214</v>
-      </c>
-      <c r="C44" s="1" t="s">
+    </row>
+    <row r="52" spans="1:2" ht="16.5">
+      <c r="A52" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D44" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" ht="16.5">
-      <c r="B45" t="s">
-        <v>215</v>
-      </c>
-      <c r="C45" s="1" t="s">
+    </row>
+    <row r="53" spans="1:2" ht="16.5">
+      <c r="A53" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D45" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" ht="16.5">
-      <c r="B46" t="s">
-        <v>216</v>
-      </c>
-      <c r="C46" s="1" t="s">
+    </row>
+    <row r="54" spans="1:2" ht="16.5">
+      <c r="A54" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D46" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" ht="16.5">
-      <c r="B47" t="s">
-        <v>217</v>
-      </c>
-      <c r="C47" s="1" t="s">
+    </row>
+    <row r="55" spans="1:2" ht="16.5">
+      <c r="A55" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D47" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" ht="16.5">
-      <c r="B48" t="s">
-        <v>218</v>
-      </c>
-      <c r="C48" s="1" t="s">
+    </row>
+    <row r="56" spans="1:2" ht="16.5">
+      <c r="A56" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D48" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" ht="16.5">
-      <c r="B49" t="s">
-        <v>219</v>
-      </c>
-      <c r="C49" s="1" t="s">
+    </row>
+    <row r="57" spans="1:2" ht="16.5">
+      <c r="A57" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="16.5">
+      <c r="A58" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" ht="16.5">
-      <c r="B50" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="C50" s="17" t="s">
+    </row>
+    <row r="59" spans="1:2" ht="16.5">
+      <c r="A59" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D50" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" ht="16.5">
-      <c r="B51" t="s">
-        <v>273</v>
-      </c>
-      <c r="C51" s="1" t="s">
+    </row>
+    <row r="60" spans="1:2" ht="16.5">
+      <c r="A60" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="16.5">
+      <c r="A61" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" ht="16.5">
-      <c r="B52" t="s">
-        <v>221</v>
-      </c>
-      <c r="C52" s="1" t="s">
+    </row>
+    <row r="62" spans="1:2" ht="16.5">
+      <c r="A62" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" ht="16.5">
-      <c r="B53" t="s">
-        <v>274</v>
-      </c>
-      <c r="C53" s="1" t="s">
+    </row>
+    <row r="63" spans="1:2" ht="16.5">
+      <c r="A63" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" ht="16.5">
-      <c r="B54" t="s">
-        <v>275</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D54" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" ht="16.5">
-      <c r="B55" t="s">
-        <v>276</v>
-      </c>
-      <c r="C55" s="1" t="s">
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="16.5">
+      <c r="A65" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="16.5">
+      <c r="A66" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D55" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" ht="16.5">
-      <c r="B56" t="s">
-        <v>222</v>
-      </c>
-      <c r="C56" s="1" t="s">
+    </row>
+    <row r="67" spans="1:3" ht="16.5">
+      <c r="A67" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D56" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" ht="33">
-      <c r="B57" t="s">
-        <v>223</v>
-      </c>
-      <c r="C57" s="2" t="s">
+    </row>
+    <row r="68" spans="1:3" ht="33">
+      <c r="A68" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D57" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" ht="16.5">
-      <c r="B58" t="s">
-        <v>277</v>
-      </c>
-      <c r="C58" s="1" t="s">
+    </row>
+    <row r="69" spans="1:3" ht="16.5">
+      <c r="A69" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" ht="16.5">
-      <c r="B59" t="s">
-        <v>278</v>
-      </c>
-      <c r="C59" s="1" t="s">
+    </row>
+    <row r="70" spans="1:3" ht="16.5">
+      <c r="A70" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D59" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" ht="16.5">
-      <c r="B60" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="C60" s="17" t="s">
+    </row>
+    <row r="71" spans="1:3" ht="16.5">
+      <c r="A71" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B71" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D60" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" ht="16.5">
-      <c r="B61" t="s">
-        <v>279</v>
-      </c>
-      <c r="C61" s="1" t="s">
+    </row>
+    <row r="72" spans="1:3" ht="16.5">
+      <c r="A72" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" ht="16.5">
-      <c r="B62" t="s">
-        <v>225</v>
-      </c>
-      <c r="C62" s="1" t="s">
+    </row>
+    <row r="73" spans="1:3" ht="16.5">
+      <c r="A73" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="16.5">
+      <c r="A74" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D62" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" ht="16.5">
-      <c r="B63" t="s">
-        <v>226</v>
-      </c>
-      <c r="C63" s="1" t="s">
+    </row>
+    <row r="75" spans="1:3" ht="16.5">
+      <c r="A75" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D63" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" ht="16.5">
-      <c r="B64" t="s">
-        <v>227</v>
-      </c>
-      <c r="C64" s="1" t="s">
+    </row>
+    <row r="76" spans="1:3" ht="16.5">
+      <c r="A76" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D64" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" ht="16.5">
-      <c r="B65" t="s">
-        <v>228</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D65" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" ht="16.5">
-      <c r="B66" t="s">
-        <v>236</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D66" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" ht="16.5">
-      <c r="B67" t="s">
-        <v>237</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D67" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" ht="16.5">
-      <c r="C68" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D68" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" ht="16.5">
-      <c r="C69" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D69" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" ht="16.5">
-      <c r="C70" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D70" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" ht="16.5">
-      <c r="C71" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D71" t="s">
-        <v>76</v>
-      </c>
+    </row>
+    <row r="77" spans="1:3" ht="16.5">
+      <c r="A77" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="B77" s="6"/>
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="1:3" ht="16.5">
+      <c r="A78" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="B78" s="6"/>
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B79" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6137,70 +5959,95 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AD24" sqref="AD24:AE24"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D3" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4" t="s">
         <v>294</v>
       </c>
-      <c r="B4" t="s">
-        <v>297</v>
-      </c>
       <c r="D4" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" t="s">
         <v>295</v>
       </c>
-      <c r="B5" t="s">
-        <v>298</v>
-      </c>
       <c r="D5" t="s">
-        <v>299</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C7" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -6216,6 +6063,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010083590925C99B8649B27EC8A711C85AC8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="39e3d79c053114ddb0e2f402ab051d65">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="82ffd5d1-c8e9-483d-a453-905e6a1f55b0" xmlns:ns3="d4f68f77-196c-4bf6-850a-3f6f039eb6f5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="29ab2c923fad8d711275bbe2c7b6fe43" ns2:_="" ns3:_="">
     <xsd:import namespace="82ffd5d1-c8e9-483d-a453-905e6a1f55b0"/>
@@ -6426,15 +6282,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70F8FCA0-6F75-4AC4-8942-440B95B5FC2E}">
   <ds:schemaRefs>
@@ -6445,6 +6292,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5642E2D6-5FC9-4774-9921-BA0AFC0F5376}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01C1F6FA-595F-4479-B5AC-A174CC9AE22E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6461,12 +6316,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5642E2D6-5FC9-4774-9921-BA0AFC0F5376}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/config/emissions_to_energy_mappings.xlsx
+++ b/config/emissions_to_energy_mappings.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aperc-my.sharepoint.com/personal/finbar_maunsell_aperc_or_jp/Documents/Documents/Github/aperc-emissions/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\aperc-emissions\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="311" documentId="13_ncr:1_{2EC4C934-4881-4B50-B407-0AD672430172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18C94AEC-11B3-467B-AD2E-FFBD04B25A4E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147BF00E-4FAC-481E-8570-25231FF3EDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27045" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAP_Hugh" sheetId="13" state="hidden" r:id="rId1"/>
     <sheet name="MAP_old_Hugh" sheetId="11" state="hidden" r:id="rId2"/>
     <sheet name="EGEDA_Hugh" sheetId="12" state="hidden" r:id="rId3"/>
     <sheet name="00APEC_map" sheetId="14" r:id="rId4"/>
-    <sheet name="transport_8th" sheetId="16" r:id="rId5"/>
-    <sheet name="outlook_8th" sheetId="17" r:id="rId6"/>
-    <sheet name="README" sheetId="15" r:id="rId7"/>
+    <sheet name="outlook_9th" sheetId="18" r:id="rId5"/>
+    <sheet name="transport_8th" sheetId="16" r:id="rId6"/>
+    <sheet name="outlook_8th" sheetId="17" r:id="rId7"/>
+    <sheet name="README" sheetId="15" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="358">
   <si>
     <t xml:space="preserve">Fuel type </t>
   </si>
@@ -806,9 +807,6 @@
     <t>9 Nuclear</t>
   </si>
   <si>
-    <t>00_APEC_fuel_code</t>
-  </si>
-  <si>
     <t>1.1 Coking coal</t>
   </si>
   <si>
@@ -947,9 +945,6 @@
     <t>IPCC_emission_factors_2021_fuel</t>
   </si>
   <si>
-    <t>Fuel_transport_8th</t>
-  </si>
-  <si>
     <t>Find proportion of gasoline type jet fuel to kerosene type jet fuel in each economy in 00APEC to calculate an expected emissions for jet fuel. May also have to consider 7_2_aviation_gasoline</t>
   </si>
   <si>
@@ -984,13 +979,160 @@
   </si>
   <si>
     <t>Was used for 8th eidtion oputlook (Sheet Hidden)</t>
+  </si>
+  <si>
+    <t>01_01_coking_coal</t>
+  </si>
+  <si>
+    <t>01_x_thermal_coal</t>
+  </si>
+  <si>
+    <t>01_05_lignite</t>
+  </si>
+  <si>
+    <t>06_01_crude_oil</t>
+  </si>
+  <si>
+    <t>06_02_natural_gas_liquids</t>
+  </si>
+  <si>
+    <t>06_x_other_hydrocarbons</t>
+  </si>
+  <si>
+    <t>07_01_motor_gasoline</t>
+  </si>
+  <si>
+    <t>07_02_aviation_gasoline</t>
+  </si>
+  <si>
+    <t>07_03_naphtha</t>
+  </si>
+  <si>
+    <t>07_x_jet_fuel</t>
+  </si>
+  <si>
+    <t>07_06_kerosene</t>
+  </si>
+  <si>
+    <t>07_07_gas_diesel_oil</t>
+  </si>
+  <si>
+    <t>07_08_fuel_oil</t>
+  </si>
+  <si>
+    <t>07_09_lpg</t>
+  </si>
+  <si>
+    <t>07_10_refinery_gas_not_liquefied</t>
+  </si>
+  <si>
+    <t>07_11_ethane</t>
+  </si>
+  <si>
+    <t>07_x_other_petroleum_products</t>
+  </si>
+  <si>
+    <t>08_01_natural_gas</t>
+  </si>
+  <si>
+    <t>08_02_lng</t>
+  </si>
+  <si>
+    <t>08_03_gas_works_gas</t>
+  </si>
+  <si>
+    <t>12_01_of_which_photovoltaics</t>
+  </si>
+  <si>
+    <t>12_x_other_solar</t>
+  </si>
+  <si>
+    <t>15_01_fuelwood_and_woodwaste</t>
+  </si>
+  <si>
+    <t>15_02_bagasse</t>
+  </si>
+  <si>
+    <t>15_03_charcoal</t>
+  </si>
+  <si>
+    <t>15_04_black_liquor</t>
+  </si>
+  <si>
+    <t>15_05_other_biomass</t>
+  </si>
+  <si>
+    <t>16_01_biogas</t>
+  </si>
+  <si>
+    <t>16_02_industrial_waste</t>
+  </si>
+  <si>
+    <t>16_03_municipal_solid_waste_renewable</t>
+  </si>
+  <si>
+    <t>16_04_municipal_solid_waste_nonrenewable</t>
+  </si>
+  <si>
+    <t>16_05_biogasoline</t>
+  </si>
+  <si>
+    <t>16_06_biodiesel</t>
+  </si>
+  <si>
+    <t>16_07_bio_jet_kerosene</t>
+  </si>
+  <si>
+    <t>16_08_other_liquid_biofuels</t>
+  </si>
+  <si>
+    <t>16_09_other_sources</t>
+  </si>
+  <si>
+    <t>16_x_ammonia</t>
+  </si>
+  <si>
+    <t>16_x_efuel</t>
+  </si>
+  <si>
+    <t>09_nuclear</t>
+  </si>
+  <si>
+    <t>08_gas</t>
+  </si>
+  <si>
+    <t>07_petroleum_products</t>
+  </si>
+  <si>
+    <t>06_crude_oil_and_ngl</t>
+  </si>
+  <si>
+    <t>05_oil_shale_and_oil_sands</t>
+  </si>
+  <si>
+    <t>03_peat</t>
+  </si>
+  <si>
+    <t>04_peat_products</t>
+  </si>
+  <si>
+    <t>02_coal_products</t>
+  </si>
+  <si>
+    <t>01_coal</t>
+  </si>
+  <si>
+    <t>outlook_9th</t>
+  </si>
+  <si>
+    <t>Created to map from the fuel codes in outlook to the ipcc fuel codes. Currently a work in progress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1072,6 +1214,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF9ECBFF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1117,7 +1265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1142,6 +1290,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1165,6 +1316,175 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C67B013F-C7DA-4309-9E16-D6B20EDCE54D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8305800" y="771525"/>
+          <a:ext cx="9382125" cy="3914775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100"/>
+            <a:t>based on: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100" baseline="0"/>
+            <a:t>https://aperc-my.sharepoint.com/personal/finbar_maunsell_aperc_or_jp/Documents/Documents/Github/aperc-emissions/config/OSeMOSYS_mapping_2021.xlsx?web=1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-SG" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100" baseline="0"/>
+            <a:t>Note that for some of the categories (the ones highlighted with yellow) i just made a quick guess and assumed them to be a fuel that might match the fuel code. for example, 1_x_coal thermal was just assumed to be sub-bit coal. This is probably not correct but it can be expected there is not too much issue wgiven the margin of error occuring in the outlook anyway</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-SG" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100" baseline="0"/>
+            <a:t>Note that this was done by finn on 8/1/2023. if its not working could be because of missing or additional fuel types</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="sng" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IPCC_Account</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" u="sng"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-SG" sz="1100" u="sng" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100" b="1" baseline="0"/>
+            <a:t>It is to detail where the emissions for that fuel type come from, so that any emissions from LULUCF (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Land use, land-use change, and forestry</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100" b="1" baseline="0"/>
+            <a:t>) are noted to be coming from there and not actually 0 emissions when you consider all sectors that the IPCC considers. (FC means fuel consumption btw). This could have the advantage of allowing us to count the emissions coming from  these accounts(sectors) if we wanted to show how much is being created from those fuel types anyway. All in all, probably a useful column!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-SG" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1379,7 +1699,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1785,14 +2105,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="35.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" customWidth="1"/>
-    <col min="7" max="7" width="38.140625" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.26953125" customWidth="1"/>
+    <col min="4" max="4" width="24.7265625" customWidth="1"/>
+    <col min="5" max="5" width="32.81640625" customWidth="1"/>
+    <col min="7" max="7" width="38.1796875" customWidth="1"/>
+    <col min="8" max="8" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2086,7 +2406,7 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:9" ht="17.25">
+    <row r="21" spans="1:9" ht="18">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -2756,11 +3076,11 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="35.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="38.140625" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38.1796875" customWidth="1"/>
+    <col min="8" max="8" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3002,7 +3322,7 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="17.25">
+    <row r="21" spans="1:8" ht="18">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -3404,12 +3724,12 @@
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="1:8" ht="15">
+    <row r="57" spans="1:8" ht="16">
       <c r="B57" s="5"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="1:8" ht="15">
+    <row r="58" spans="1:8" ht="16">
       <c r="B58" s="5"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
@@ -3548,10 +3868,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.54296875" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4233,33 +4553,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FD38E8-DCE1-4156-BA4C-4CE47C822C6C}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.453125" customWidth="1"/>
+    <col min="3" max="3" width="41.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>251</v>
+      <c r="A1" s="18" t="s">
+        <v>301</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>24</v>
@@ -4270,7 +4591,7 @@
     </row>
     <row r="3" spans="1:4" ht="16.5">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
@@ -4294,7 +4615,7 @@
     </row>
     <row r="5" spans="1:4" ht="16.5">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>23</v>
@@ -4306,7 +4627,7 @@
     </row>
     <row r="6" spans="1:4" ht="16.5">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>27</v>
@@ -4318,7 +4639,7 @@
     </row>
     <row r="7" spans="1:4" ht="16.5">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>31</v>
@@ -4414,7 +4735,7 @@
     </row>
     <row r="15" spans="1:4" ht="16.5">
       <c r="A15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>42</v>
@@ -4426,7 +4747,7 @@
     </row>
     <row r="16" spans="1:4" ht="16.5">
       <c r="A16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>42</v>
@@ -4437,7 +4758,7 @@
     </row>
     <row r="17" spans="1:4" ht="16.5">
       <c r="A17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>28</v>
@@ -4448,7 +4769,7 @@
     </row>
     <row r="18" spans="1:4" ht="16.5">
       <c r="A18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1</v>
@@ -4459,7 +4780,7 @@
     </row>
     <row r="19" spans="1:4" ht="16.5">
       <c r="A19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>3</v>
@@ -4471,7 +4792,7 @@
     </row>
     <row r="20" spans="1:4" ht="16.5">
       <c r="A20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
@@ -4495,7 +4816,7 @@
     </row>
     <row r="22" spans="1:4" ht="16.5">
       <c r="A22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>14</v>
@@ -4606,7 +4927,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17.25">
+    <row r="32" spans="1:4" ht="18">
       <c r="A32" t="s">
         <v>248</v>
       </c>
@@ -4619,7 +4940,7 @@
     </row>
     <row r="33" spans="1:9" ht="16.5">
       <c r="A33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>13</v>
@@ -4630,7 +4951,7 @@
     </row>
     <row r="34" spans="1:9" ht="16.5">
       <c r="A34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>21</v>
@@ -4642,7 +4963,7 @@
     </row>
     <row r="35" spans="1:9" ht="16.5">
       <c r="A35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>16</v>
@@ -4654,7 +4975,7 @@
     </row>
     <row r="36" spans="1:9" ht="16.5">
       <c r="A36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>15</v>
@@ -4678,7 +4999,7 @@
     </row>
     <row r="38" spans="1:9" ht="16.5">
       <c r="A38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>17</v>
@@ -4690,7 +5011,7 @@
     </row>
     <row r="39" spans="1:9" ht="16.5">
       <c r="A39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>22</v>
@@ -4702,7 +5023,7 @@
     </row>
     <row r="40" spans="1:9" ht="16.5">
       <c r="A40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>38</v>
@@ -4713,7 +5034,7 @@
     </row>
     <row r="41" spans="1:9" ht="16.5">
       <c r="A41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>38</v>
@@ -4725,7 +5046,7 @@
     </row>
     <row r="42" spans="1:9" ht="16.5">
       <c r="A42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>34</v>
@@ -4740,13 +5061,13 @@
         <v>250</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I43" s="17"/>
     </row>
@@ -4755,13 +5076,13 @@
         <v>214</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I44" s="17"/>
     </row>
@@ -4770,13 +5091,13 @@
         <v>215</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C45" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I45" s="17"/>
     </row>
@@ -4785,13 +5106,13 @@
         <v>216</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C46" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I46" s="17"/>
     </row>
@@ -4800,13 +5121,13 @@
         <v>217</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D47" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I47" s="17"/>
     </row>
@@ -4815,13 +5136,13 @@
         <v>218</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C48" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I48" s="17"/>
     </row>
@@ -4848,12 +5169,12 @@
         <v>76</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5">
       <c r="A51" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>46</v>
@@ -4876,7 +5197,7 @@
     </row>
     <row r="53" spans="1:9" ht="16.5">
       <c r="A53" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>45</v>
@@ -4887,7 +5208,7 @@
     </row>
     <row r="54" spans="1:9" ht="16.5">
       <c r="A54" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>50</v>
@@ -4898,7 +5219,7 @@
     </row>
     <row r="55" spans="1:9" ht="16.5">
       <c r="A55" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>40</v>
@@ -4931,7 +5252,7 @@
     </row>
     <row r="58" spans="1:9" ht="16.5">
       <c r="A58" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>47</v>
@@ -4942,7 +5263,7 @@
     </row>
     <row r="59" spans="1:9" ht="16.5">
       <c r="A59" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>48</v>
@@ -4962,12 +5283,12 @@
         <v>76</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5">
       <c r="A61" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>49</v>
@@ -4981,13 +5302,13 @@
         <v>225</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C62" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D62" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="16.5">
@@ -4995,13 +5316,13 @@
         <v>226</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C63" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D63" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="16.5">
@@ -5009,13 +5330,13 @@
         <v>227</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C64" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D64" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.5">
@@ -5023,13 +5344,13 @@
         <v>228</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C65" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D65" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="16.5">
@@ -5037,13 +5358,13 @@
         <v>236</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C66" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D66" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="16.5">
@@ -5051,13 +5372,13 @@
         <v>237</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C67" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D67" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="16.5">
@@ -5099,31 +5420,712 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30157C93-3BC1-4B59-BC0A-0B0D54BFB379}">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="38.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5">
+      <c r="A2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5">
+      <c r="A3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5">
+      <c r="A4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5">
+      <c r="A5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5">
+      <c r="A6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5">
+      <c r="A7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5">
+      <c r="A8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5">
+      <c r="A9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5">
+      <c r="A10" t="s">
+        <v>350</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5">
+      <c r="A11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5">
+      <c r="A12" t="s">
+        <v>313</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5">
+      <c r="A13" t="s">
+        <v>314</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>349</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5">
+      <c r="A15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5">
+      <c r="A16" t="s">
+        <v>316</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5">
+      <c r="A17" t="s">
+        <v>317</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5">
+      <c r="A18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5">
+      <c r="A19" t="s">
+        <v>319</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5">
+      <c r="A20" t="s">
+        <v>320</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5">
+      <c r="A21" t="s">
+        <v>321</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5">
+      <c r="A22" t="s">
+        <v>322</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18">
+      <c r="A23" t="s">
+        <v>323</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.5">
+      <c r="A24" t="s">
+        <v>324</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5">
+      <c r="A25" t="s">
+        <v>325</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>348</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.5">
+      <c r="A27" t="s">
+        <v>326</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.5">
+      <c r="A28" t="s">
+        <v>327</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.5">
+      <c r="A29" t="s">
+        <v>328</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5">
+      <c r="A30" t="s">
+        <v>347</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5">
+      <c r="A31" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C31" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5">
+      <c r="A32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C32" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.5">
+      <c r="A33" t="s">
+        <v>175</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C33" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.5">
+      <c r="A34" t="s">
+        <v>329</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C34" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.5">
+      <c r="A35" t="s">
+        <v>330</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.5">
+      <c r="A36" t="s">
+        <v>171</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C36" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.5">
+      <c r="A37" t="s">
+        <v>173</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C37" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16.5">
+      <c r="A38" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16.5">
+      <c r="A39" t="s">
+        <v>331</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16.5">
+      <c r="A40" t="s">
+        <v>332</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16.5">
+      <c r="A41" t="s">
+        <v>333</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16.5">
+      <c r="A42" t="s">
+        <v>334</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16.5">
+      <c r="A43" t="s">
+        <v>335</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>186</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16.5">
+      <c r="A45" t="s">
+        <v>336</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.5">
+      <c r="A46" t="s">
+        <v>337</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16.5">
+      <c r="A47" t="s">
+        <v>338</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="33">
+      <c r="A48" t="s">
+        <v>339</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16.5">
+      <c r="A49" t="s">
+        <v>340</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16.5">
+      <c r="A50" t="s">
+        <v>341</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16.5">
+      <c r="A51" t="s">
+        <v>342</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16.5">
+      <c r="A52" t="s">
+        <v>343</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16.5">
+      <c r="A53" t="s">
+        <v>344</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16.5">
+      <c r="A54" t="s">
+        <v>201</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C54" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16.5">
+      <c r="A55" t="s">
+        <v>345</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16.5">
+      <c r="A56" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="16.5">
+      <c r="A57" t="s">
+        <v>203</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C57" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="16.5">
+      <c r="A58" t="s">
+        <v>205</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C58" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>207</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>209</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>210</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05164C71-A70B-4BC7-B5B5-94FB28BB5C0F}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.1796875" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>298</v>
+      <c r="A1" s="18" t="s">
+        <v>301</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5">
@@ -5148,7 +6150,7 @@
         <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5">
@@ -5156,10 +6158,10 @@
         <v>201</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5">
@@ -5180,7 +6182,7 @@
       <c r="B6" s="14"/>
       <c r="C6" s="15"/>
       <c r="D6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5">
@@ -5188,10 +6190,10 @@
         <v>203</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5">
@@ -5289,7 +6291,7 @@
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -5298,26 +6300,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAB965F-4D5B-450A-BC9E-4BCCD940211B}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5">
@@ -5327,6 +6332,9 @@
       <c r="B2" s="12" t="s">
         <v>26</v>
       </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="16.5">
@@ -5336,6 +6344,9 @@
       <c r="B3" s="12" t="s">
         <v>26</v>
       </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="16.5">
@@ -5345,6 +6356,9 @@
       <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="16.5">
@@ -5354,6 +6368,9 @@
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="16.5">
@@ -5363,6 +6380,9 @@
       <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="16.5">
@@ -5372,6 +6392,9 @@
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="16.5">
@@ -5381,6 +6404,9 @@
       <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="16.5">
@@ -5390,6 +6416,9 @@
       <c r="B9" s="12" t="s">
         <v>26</v>
       </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="16.5">
       <c r="A10" s="17" t="s">
@@ -5398,6 +6427,9 @@
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="16.5">
       <c r="A11" s="17" t="s">
@@ -5406,6 +6438,9 @@
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="16.5">
       <c r="A12" s="17" t="s">
@@ -5414,6 +6449,9 @@
       <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="16.5">
       <c r="A13" s="17" t="s">
@@ -5422,6 +6460,9 @@
       <c r="B13" s="12" t="s">
         <v>37</v>
       </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="16.5">
       <c r="A14" s="17" t="s">
@@ -5430,6 +6471,9 @@
       <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="16.5">
       <c r="A15" s="17" t="s">
@@ -5438,6 +6482,9 @@
       <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="16.5">
       <c r="A16" s="17" t="s">
@@ -5446,389 +6493,536 @@
       <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5">
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5">
       <c r="A17" s="17" t="s">
         <v>99</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5">
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5">
       <c r="A18" s="17" t="s">
         <v>100</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5">
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5">
       <c r="A19" s="17" t="s">
         <v>101</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5">
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5">
       <c r="A20" s="17" t="s">
         <v>111</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.5">
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5">
       <c r="A21" s="17" t="s">
         <v>112</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="16.5">
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5">
       <c r="A22" s="17" t="s">
         <v>122</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="16.5">
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.5">
       <c r="A23" s="17" t="s">
         <v>114</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="16.5">
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.5">
       <c r="A24" s="17" t="s">
         <v>116</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="16.5">
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5">
       <c r="A25" s="17" t="s">
         <v>118</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="16.5">
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.5">
       <c r="A26" s="17" t="s">
         <v>120</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="17" t="s">
         <v>124</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="16.5">
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.5">
       <c r="A28" s="17" t="s">
         <v>126</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="16.5">
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.5">
       <c r="A29" s="17" t="s">
         <v>127</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="16.5">
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5">
       <c r="A30" s="17" t="s">
         <v>128</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="16.5">
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5">
       <c r="A31" s="17" t="s">
         <v>129</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="16.5">
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5">
       <c r="A32" s="17" t="s">
         <v>131</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="16.5">
+      <c r="C32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.5">
       <c r="A33" s="17" t="s">
         <v>133</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="16.5">
+      <c r="C33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.5">
       <c r="A34" s="17" t="s">
         <v>134</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="16.5">
+      <c r="C34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.5">
       <c r="A35" s="17" t="s">
         <v>135</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="16.5">
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.5">
       <c r="A36" s="17" t="s">
         <v>136</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="16.5">
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.5">
       <c r="A37" s="17" t="s">
         <v>137</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="17.25">
+      <c r="C37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18">
       <c r="A38" s="17" t="s">
         <v>138</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="16.5">
+      <c r="C38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16.5">
       <c r="A39" s="17" t="s">
         <v>139</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="16.5">
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16.5">
       <c r="A40" s="17" t="s">
         <v>140</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="16.5">
+      <c r="C40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16.5">
       <c r="A41" s="17" t="s">
         <v>142</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="16.5">
+      <c r="C41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16.5">
       <c r="A42" s="17" t="s">
         <v>144</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="16.5">
+      <c r="C42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16.5">
       <c r="A43" s="17" t="s">
         <v>146</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="16.5">
+      <c r="C43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16.5">
       <c r="A44" s="17" t="s">
         <v>148</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="16.5">
+      <c r="C44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16.5">
       <c r="A45" s="17" t="s">
         <v>150</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="16.5">
+      <c r="C45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.5">
       <c r="A46" s="17" t="s">
         <v>152</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="17" t="s">
         <v>154</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="16.5">
+      <c r="C47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16.5">
       <c r="A48" s="17" t="s">
         <v>155</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="16.5">
+      <c r="C48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16.5">
       <c r="A49" s="17" t="s">
         <v>157</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="16.5">
+      <c r="C49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16.5">
       <c r="A50" s="17" t="s">
         <v>159</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="16.5">
+      <c r="C50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16.5">
       <c r="A51" s="17" t="s">
         <v>163</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="16.5">
+        <v>279</v>
+      </c>
+      <c r="C51" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16.5">
       <c r="A52" s="17" t="s">
         <v>161</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="16.5">
+        <v>279</v>
+      </c>
+      <c r="C52" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16.5">
       <c r="A53" s="17" t="s">
         <v>166</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="16.5">
+        <v>279</v>
+      </c>
+      <c r="C53" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16.5">
       <c r="A54" s="17" t="s">
         <v>175</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="16.5">
+        <v>279</v>
+      </c>
+      <c r="C54" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16.5">
       <c r="A55" s="17" t="s">
         <v>169</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="16.5">
+        <v>279</v>
+      </c>
+      <c r="C55" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16.5">
       <c r="A56" s="17" t="s">
         <v>171</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="16.5">
+        <v>279</v>
+      </c>
+      <c r="C56" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="16.5">
       <c r="A57" s="17" t="s">
         <v>173</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="16.5">
+        <v>279</v>
+      </c>
+      <c r="C57" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="16.5">
       <c r="A58" s="17" t="s">
         <v>179</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="16.5">
+      <c r="C58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16.5">
       <c r="A59" s="17" t="s">
         <v>180</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="16.5">
+      <c r="C59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="16.5">
       <c r="A60" s="17" t="s">
         <v>182</v>
       </c>
       <c r="B60" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="16.5">
+      <c r="C60" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16.5">
       <c r="A61" s="17" t="s">
         <v>183</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="16.5">
+      <c r="C61" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="16.5">
       <c r="A62" s="17" t="s">
         <v>184</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="16.5">
+      <c r="C62" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="16.5">
       <c r="A63" s="17" t="s">
         <v>185</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="17" t="s">
         <v>186</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>52</v>
+      </c>
+      <c r="C64" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="16.5">
@@ -5838,6 +7032,9 @@
       <c r="B65" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="C65" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="66" spans="1:3" ht="16.5">
       <c r="A66" s="17" t="s">
@@ -5846,6 +7043,9 @@
       <c r="B66" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="C66" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="67" spans="1:3" ht="16.5">
       <c r="A67" s="17" t="s">
@@ -5854,6 +7054,9 @@
       <c r="B67" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="C67" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="68" spans="1:3" ht="33">
       <c r="A68" s="17" t="s">
@@ -5862,6 +7065,9 @@
       <c r="B68" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="C68" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="69" spans="1:3" ht="16.5">
       <c r="A69" s="17" t="s">
@@ -5870,6 +7076,9 @@
       <c r="B69" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="C69" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="70" spans="1:3" ht="16.5">
       <c r="A70" s="17" t="s">
@@ -5878,6 +7087,9 @@
       <c r="B70" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="C70" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="71" spans="1:3" ht="16.5">
       <c r="A71" s="17" t="s">
@@ -5886,6 +7098,9 @@
       <c r="B71" s="12" t="s">
         <v>49</v>
       </c>
+      <c r="C71" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="72" spans="1:3" ht="16.5">
       <c r="A72" s="17" t="s">
@@ -5894,6 +7109,9 @@
       <c r="B72" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="C72" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="73" spans="1:3" ht="16.5">
       <c r="A73" s="17" t="s">
@@ -5902,13 +7120,19 @@
       <c r="B73" s="12" t="s">
         <v>43</v>
       </c>
+      <c r="C73" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="74" spans="1:3" ht="16.5">
       <c r="A74" s="17" t="s">
         <v>201</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
+      </c>
+      <c r="C74" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="16.5">
@@ -5916,7 +7140,10 @@
         <v>203</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
+      </c>
+      <c r="C75" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="16.5">
@@ -5924,28 +7151,38 @@
         <v>205</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="16.5">
+        <v>279</v>
+      </c>
+      <c r="C76" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="17" t="s">
         <v>207</v>
       </c>
       <c r="B77" s="6"/>
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="1:3" ht="16.5">
+      <c r="C77" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="17" t="s">
         <v>209</v>
       </c>
       <c r="B78" s="6"/>
-      <c r="C78" s="1"/>
+      <c r="C78" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="17" t="s">
         <v>210</v>
       </c>
       <c r="B79" s="6"/>
+      <c r="C79" t="s">
+        <v>295</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5954,100 +7191,114 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0EE1A7-FFB9-4B6A-AE85-A8B4D5DB3969}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B6" t="s">
         <v>304</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>306</v>
-      </c>
-      <c r="C6" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" t="s">
         <v>305</v>
       </c>
-      <c r="B7" t="s">
-        <v>307</v>
-      </c>
       <c r="C7" t="s">
-        <v>308</v>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D8" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -6057,12 +7308,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6071,7 +7316,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010083590925C99B8649B27EC8A711C85AC8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="39e3d79c053114ddb0e2f402ab051d65">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="82ffd5d1-c8e9-483d-a453-905e6a1f55b0" xmlns:ns3="d4f68f77-196c-4bf6-850a-3f6f039eb6f5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="29ab2c923fad8d711275bbe2c7b6fe43" ns2:_="" ns3:_="">
     <xsd:import namespace="82ffd5d1-c8e9-483d-a453-905e6a1f55b0"/>
@@ -6282,16 +7527,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70F8FCA0-6F75-4AC4-8942-440B95B5FC2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5642E2D6-5FC9-4774-9921-BA0AFC0F5376}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -6299,7 +7541,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01C1F6FA-595F-4479-B5AC-A174CC9AE22E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6316,4 +7558,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70F8FCA0-6F75-4AC4-8942-440B95B5FC2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>